--- a/020-内部設計/023-検索機能/Main/クラス仕様書_MainServlet.xlsx
+++ b/020-内部設計/023-検索機能/Main/クラス仕様書_MainServlet.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9866ED5-CB8C-4054-99C5-BC6E3B278B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A5CEA-C414-4C50-9CAD-49F0E25B0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
-    <sheet name="メソッド仕様（doGet）" sheetId="7" r:id="rId2"/>
-    <sheet name="メソッド仕様（doPost）" sheetId="8" r:id="rId3"/>
+    <sheet name="メソッド仕様_doGet" sheetId="7" r:id="rId2"/>
+    <sheet name="メソッド仕様_doPost" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$30</definedName>
@@ -320,10 +320,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>execute</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ServletException</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -394,13 +390,6 @@
       <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>商品購入</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンコウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メイン画面遷移</t>
@@ -554,19 +543,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>メイン画面またはエラー画面へ遷移する。</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -751,16 +727,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>4.　メイン画面選択肢情報をリクエストに登録。</t>
-    <rPh sb="11" eb="13">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>2.　遷移先をメイン画面に設定。</t>
     <rPh sb="3" eb="6">
       <t>センイサキ</t>
@@ -790,34 +756,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>3.　メイン画面選択肢情報取得を呼び出し、メイン画面選択肢情報を取得。</t>
-    <rPh sb="6" eb="13">
-      <t>ガメンセンタクシジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -860,16 +798,75 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>メイン画面の、選択肢情報の取得を行う。</t>
+    <t>商品検索</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.　選択肢情報をリクエストに登録。</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メイン画面の、選択肢情報の取得。</t>
     <rPh sb="10" eb="12">
       <t>ジョウホウ</t>
     </rPh>
     <rPh sb="13" eb="15">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="16" eb="17">
-      <t>オコナ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メイン画面またはエラー画面へ遷移。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
     </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3.　選択肢情報取得を呼び出し、選択肢情報を取得。</t>
+    <rPh sb="3" eb="6">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>createMainValue</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1757,6 +1754,108 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1778,21 +1877,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1811,146 +1895,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1969,6 +1927,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,149 +1988,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152398</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71716</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 角を丸めた四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C5A177-CC0B-4683-99D0-6287A5F05ECC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3281080" y="5253318"/>
-          <a:ext cx="3397625" cy="466163"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -88558"/>
-            <a:gd name="adj2" fmla="val -57051"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>POST</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>にも飛んでくる可能性があるということですか？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D859B1DD-C2F8-99BC-B277-200EDC21D16F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2312893" y="1703293"/>
-          <a:ext cx="8319248" cy="8184778"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
-            <a:t>DIS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
-            <a:t>レビュー対象外</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2425,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -2435,85 +2289,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="172" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="171" t="s">
-        <v>73</v>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="176" t="s">
+        <v>130</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="172" t="s">
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="171" t="s">
-        <v>74</v>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="176" t="s">
+        <v>72</v>
       </c>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="171"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="172" t="s">
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
+      <c r="AK1" s="176"/>
+      <c r="AL1" s="176"/>
+      <c r="AM1" s="176"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="176"/>
+      <c r="AP1" s="176"/>
+      <c r="AQ1" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="172"/>
-      <c r="AS1" s="172"/>
-      <c r="AT1" s="171" t="s">
+      <c r="AR1" s="175"/>
+      <c r="AS1" s="175"/>
+      <c r="AT1" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="172" t="s">
+      <c r="AU1" s="176"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="176"/>
+      <c r="AX1" s="176"/>
+      <c r="AY1" s="176"/>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="172"/>
-      <c r="BC1" s="172"/>
-      <c r="BD1" s="174">
+      <c r="BB1" s="175"/>
+      <c r="BC1" s="175"/>
+      <c r="BD1" s="178">
         <v>45909</v>
       </c>
-      <c r="BE1" s="174"/>
-      <c r="BF1" s="174"/>
-      <c r="BG1" s="174"/>
-      <c r="BH1" s="174"/>
-      <c r="BI1" s="174"/>
+      <c r="BE1" s="178"/>
+      <c r="BF1" s="178"/>
+      <c r="BG1" s="178"/>
+      <c r="BH1" s="178"/>
+      <c r="BI1" s="178"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2713,80 +2567,80 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="172" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="172" t="s">
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="171" t="str">
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="176" t="str">
         <f>G6</f>
         <v>MainServlert</v>
       </c>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="171"/>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="172" t="s">
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="176"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="176"/>
+      <c r="AJ2" s="176"/>
+      <c r="AK2" s="176"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="172"/>
-      <c r="AS2" s="172"/>
-      <c r="AT2" s="171"/>
-      <c r="AU2" s="171"/>
-      <c r="AV2" s="171"/>
-      <c r="AW2" s="171"/>
-      <c r="AX2" s="171"/>
-      <c r="AY2" s="171"/>
-      <c r="AZ2" s="171"/>
-      <c r="BA2" s="172" t="s">
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="176"/>
+      <c r="AU2" s="176"/>
+      <c r="AV2" s="176"/>
+      <c r="AW2" s="176"/>
+      <c r="AX2" s="176"/>
+      <c r="AY2" s="176"/>
+      <c r="AZ2" s="176"/>
+      <c r="BA2" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="172"/>
-      <c r="BC2" s="172"/>
-      <c r="BD2" s="174">
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="178">
         <v>45917</v>
       </c>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="174"/>
-      <c r="BH2" s="174"/>
-      <c r="BI2" s="174"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="178"/>
+      <c r="BH2" s="178"/>
+      <c r="BI2" s="178"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2986,410 +2840,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="168" t="s">
-        <v>83</v>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="165" t="s">
+        <v>81</v>
       </c>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="169"/>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="169"/>
-      <c r="AL4" s="169"/>
-      <c r="AM4" s="169"/>
-      <c r="AN4" s="169"/>
-      <c r="AO4" s="169"/>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="169"/>
-      <c r="AT4" s="169"/>
-      <c r="AU4" s="169"/>
-      <c r="AV4" s="169"/>
-      <c r="AW4" s="169"/>
-      <c r="AX4" s="169"/>
-      <c r="AY4" s="169"/>
-      <c r="AZ4" s="169"/>
-      <c r="BA4" s="169"/>
-      <c r="BB4" s="169"/>
-      <c r="BC4" s="169"/>
-      <c r="BD4" s="169"/>
-      <c r="BE4" s="169"/>
-      <c r="BF4" s="169"/>
-      <c r="BG4" s="169"/>
-      <c r="BH4" s="169"/>
-      <c r="BI4" s="170"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="166"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="166"/>
+      <c r="AG4" s="166"/>
+      <c r="AH4" s="166"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="166"/>
+      <c r="AK4" s="166"/>
+      <c r="AL4" s="166"/>
+      <c r="AM4" s="166"/>
+      <c r="AN4" s="166"/>
+      <c r="AO4" s="166"/>
+      <c r="AP4" s="166"/>
+      <c r="AQ4" s="166"/>
+      <c r="AR4" s="166"/>
+      <c r="AS4" s="166"/>
+      <c r="AT4" s="166"/>
+      <c r="AU4" s="166"/>
+      <c r="AV4" s="166"/>
+      <c r="AW4" s="166"/>
+      <c r="AX4" s="166"/>
+      <c r="AY4" s="166"/>
+      <c r="AZ4" s="166"/>
+      <c r="BA4" s="166"/>
+      <c r="BB4" s="166"/>
+      <c r="BC4" s="166"/>
+      <c r="BD4" s="166"/>
+      <c r="BE4" s="166"/>
+      <c r="BF4" s="166"/>
+      <c r="BG4" s="166"/>
+      <c r="BH4" s="166"/>
+      <c r="BI4" s="167"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="168" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="169"/>
-      <c r="Y5" s="169"/>
-      <c r="Z5" s="169"/>
-      <c r="AA5" s="169"/>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="169"/>
-      <c r="AG5" s="169"/>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="169"/>
-      <c r="AJ5" s="169"/>
-      <c r="AK5" s="169"/>
-      <c r="AL5" s="169"/>
-      <c r="AM5" s="169"/>
-      <c r="AN5" s="169"/>
-      <c r="AO5" s="169"/>
-      <c r="AP5" s="169"/>
-      <c r="AQ5" s="169"/>
-      <c r="AR5" s="169"/>
-      <c r="AS5" s="169"/>
-      <c r="AT5" s="169"/>
-      <c r="AU5" s="169"/>
-      <c r="AV5" s="169"/>
-      <c r="AW5" s="169"/>
-      <c r="AX5" s="169"/>
-      <c r="AY5" s="169"/>
-      <c r="AZ5" s="169"/>
-      <c r="BA5" s="169"/>
-      <c r="BB5" s="169"/>
-      <c r="BC5" s="169"/>
-      <c r="BD5" s="169"/>
-      <c r="BE5" s="169"/>
-      <c r="BF5" s="169"/>
-      <c r="BG5" s="169"/>
-      <c r="BH5" s="169"/>
-      <c r="BI5" s="170"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
+      <c r="AS5" s="166"/>
+      <c r="AT5" s="166"/>
+      <c r="AU5" s="166"/>
+      <c r="AV5" s="166"/>
+      <c r="AW5" s="166"/>
+      <c r="AX5" s="166"/>
+      <c r="AY5" s="166"/>
+      <c r="AZ5" s="166"/>
+      <c r="BA5" s="166"/>
+      <c r="BB5" s="166"/>
+      <c r="BC5" s="166"/>
+      <c r="BD5" s="166"/>
+      <c r="BE5" s="166"/>
+      <c r="BF5" s="166"/>
+      <c r="BG5" s="166"/>
+      <c r="BH5" s="166"/>
+      <c r="BI5" s="167"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="168" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="169"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="169"/>
-      <c r="AB6" s="169"/>
-      <c r="AC6" s="169"/>
-      <c r="AD6" s="169"/>
-      <c r="AE6" s="169"/>
-      <c r="AF6" s="169"/>
-      <c r="AG6" s="169"/>
-      <c r="AH6" s="169"/>
-      <c r="AI6" s="169"/>
-      <c r="AJ6" s="169"/>
-      <c r="AK6" s="169"/>
-      <c r="AL6" s="169"/>
-      <c r="AM6" s="169"/>
-      <c r="AN6" s="169"/>
-      <c r="AO6" s="169"/>
-      <c r="AP6" s="169"/>
-      <c r="AQ6" s="169"/>
-      <c r="AR6" s="169"/>
-      <c r="AS6" s="169"/>
-      <c r="AT6" s="169"/>
-      <c r="AU6" s="169"/>
-      <c r="AV6" s="169"/>
-      <c r="AW6" s="169"/>
-      <c r="AX6" s="169"/>
-      <c r="AY6" s="169"/>
-      <c r="AZ6" s="169"/>
-      <c r="BA6" s="169"/>
-      <c r="BB6" s="169"/>
-      <c r="BC6" s="169"/>
-      <c r="BD6" s="169"/>
-      <c r="BE6" s="169"/>
-      <c r="BF6" s="169"/>
-      <c r="BG6" s="169"/>
-      <c r="BH6" s="169"/>
-      <c r="BI6" s="170"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="166"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="166"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="166"/>
+      <c r="Z6" s="166"/>
+      <c r="AA6" s="166"/>
+      <c r="AB6" s="166"/>
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="166"/>
+      <c r="AH6" s="166"/>
+      <c r="AI6" s="166"/>
+      <c r="AJ6" s="166"/>
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="166"/>
+      <c r="AM6" s="166"/>
+      <c r="AN6" s="166"/>
+      <c r="AO6" s="166"/>
+      <c r="AP6" s="166"/>
+      <c r="AQ6" s="166"/>
+      <c r="AR6" s="166"/>
+      <c r="AS6" s="166"/>
+      <c r="AT6" s="166"/>
+      <c r="AU6" s="166"/>
+      <c r="AV6" s="166"/>
+      <c r="AW6" s="166"/>
+      <c r="AX6" s="166"/>
+      <c r="AY6" s="166"/>
+      <c r="AZ6" s="166"/>
+      <c r="BA6" s="166"/>
+      <c r="BB6" s="166"/>
+      <c r="BC6" s="166"/>
+      <c r="BD6" s="166"/>
+      <c r="BE6" s="166"/>
+      <c r="BF6" s="166"/>
+      <c r="BG6" s="166"/>
+      <c r="BH6" s="166"/>
+      <c r="BI6" s="167"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="168" t="s">
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="169"/>
-      <c r="V7" s="169"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="169"/>
-      <c r="Y7" s="169"/>
-      <c r="Z7" s="169"/>
-      <c r="AA7" s="169"/>
-      <c r="AB7" s="169"/>
-      <c r="AC7" s="169"/>
-      <c r="AD7" s="169"/>
-      <c r="AE7" s="169"/>
-      <c r="AF7" s="169"/>
-      <c r="AG7" s="169"/>
-      <c r="AH7" s="169"/>
-      <c r="AI7" s="169"/>
-      <c r="AJ7" s="169"/>
-      <c r="AK7" s="169"/>
-      <c r="AL7" s="169"/>
-      <c r="AM7" s="169"/>
-      <c r="AN7" s="169"/>
-      <c r="AO7" s="169"/>
-      <c r="AP7" s="169"/>
-      <c r="AQ7" s="169"/>
-      <c r="AR7" s="169"/>
-      <c r="AS7" s="169"/>
-      <c r="AT7" s="169"/>
-      <c r="AU7" s="169"/>
-      <c r="AV7" s="169"/>
-      <c r="AW7" s="169"/>
-      <c r="AX7" s="169"/>
-      <c r="AY7" s="169"/>
-      <c r="AZ7" s="169"/>
-      <c r="BA7" s="169"/>
-      <c r="BB7" s="169"/>
-      <c r="BC7" s="169"/>
-      <c r="BD7" s="169"/>
-      <c r="BE7" s="169"/>
-      <c r="BF7" s="169"/>
-      <c r="BG7" s="169"/>
-      <c r="BH7" s="169"/>
-      <c r="BI7" s="170"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="166"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="166"/>
+      <c r="AI7" s="166"/>
+      <c r="AJ7" s="166"/>
+      <c r="AK7" s="166"/>
+      <c r="AL7" s="166"/>
+      <c r="AM7" s="166"/>
+      <c r="AN7" s="166"/>
+      <c r="AO7" s="166"/>
+      <c r="AP7" s="166"/>
+      <c r="AQ7" s="166"/>
+      <c r="AR7" s="166"/>
+      <c r="AS7" s="166"/>
+      <c r="AT7" s="166"/>
+      <c r="AU7" s="166"/>
+      <c r="AV7" s="166"/>
+      <c r="AW7" s="166"/>
+      <c r="AX7" s="166"/>
+      <c r="AY7" s="166"/>
+      <c r="AZ7" s="166"/>
+      <c r="BA7" s="166"/>
+      <c r="BB7" s="166"/>
+      <c r="BC7" s="166"/>
+      <c r="BD7" s="166"/>
+      <c r="BE7" s="166"/>
+      <c r="BF7" s="166"/>
+      <c r="BG7" s="166"/>
+      <c r="BH7" s="166"/>
+      <c r="BI7" s="167"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="168" t="s">
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="169"/>
-      <c r="X8" s="169"/>
-      <c r="Y8" s="169"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="169"/>
-      <c r="AC8" s="169"/>
-      <c r="AD8" s="169"/>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="169"/>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="169"/>
-      <c r="AJ8" s="169"/>
-      <c r="AK8" s="169"/>
-      <c r="AL8" s="169"/>
-      <c r="AM8" s="169"/>
-      <c r="AN8" s="169"/>
-      <c r="AO8" s="169"/>
-      <c r="AP8" s="169"/>
-      <c r="AQ8" s="169"/>
-      <c r="AR8" s="169"/>
-      <c r="AS8" s="169"/>
-      <c r="AT8" s="169"/>
-      <c r="AU8" s="169"/>
-      <c r="AV8" s="169"/>
-      <c r="AW8" s="169"/>
-      <c r="AX8" s="169"/>
-      <c r="AY8" s="169"/>
-      <c r="AZ8" s="169"/>
-      <c r="BA8" s="169"/>
-      <c r="BB8" s="169"/>
-      <c r="BC8" s="169"/>
-      <c r="BD8" s="169"/>
-      <c r="BE8" s="169"/>
-      <c r="BF8" s="169"/>
-      <c r="BG8" s="169"/>
-      <c r="BH8" s="169"/>
-      <c r="BI8" s="170"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="166"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="166"/>
+      <c r="X8" s="166"/>
+      <c r="Y8" s="166"/>
+      <c r="Z8" s="166"/>
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="166"/>
+      <c r="AC8" s="166"/>
+      <c r="AD8" s="166"/>
+      <c r="AE8" s="166"/>
+      <c r="AF8" s="166"/>
+      <c r="AG8" s="166"/>
+      <c r="AH8" s="166"/>
+      <c r="AI8" s="166"/>
+      <c r="AJ8" s="166"/>
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="166"/>
+      <c r="AN8" s="166"/>
+      <c r="AO8" s="166"/>
+      <c r="AP8" s="166"/>
+      <c r="AQ8" s="166"/>
+      <c r="AR8" s="166"/>
+      <c r="AS8" s="166"/>
+      <c r="AT8" s="166"/>
+      <c r="AU8" s="166"/>
+      <c r="AV8" s="166"/>
+      <c r="AW8" s="166"/>
+      <c r="AX8" s="166"/>
+      <c r="AY8" s="166"/>
+      <c r="AZ8" s="166"/>
+      <c r="BA8" s="166"/>
+      <c r="BB8" s="166"/>
+      <c r="BC8" s="166"/>
+      <c r="BD8" s="166"/>
+      <c r="BE8" s="166"/>
+      <c r="BF8" s="166"/>
+      <c r="BG8" s="166"/>
+      <c r="BH8" s="166"/>
+      <c r="BI8" s="167"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="168" t="s">
-        <v>75</v>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="165" t="s">
+        <v>73</v>
       </c>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="169"/>
-      <c r="S9" s="169"/>
-      <c r="T9" s="169"/>
-      <c r="U9" s="169"/>
-      <c r="V9" s="169"/>
-      <c r="W9" s="169"/>
-      <c r="X9" s="169"/>
-      <c r="Y9" s="169"/>
-      <c r="Z9" s="169"/>
-      <c r="AA9" s="169"/>
-      <c r="AB9" s="169"/>
-      <c r="AC9" s="169"/>
-      <c r="AD9" s="169"/>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="167" t="s">
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="167"/>
-      <c r="AL9" s="184" t="s">
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="163"/>
+      <c r="AI9" s="163"/>
+      <c r="AJ9" s="163"/>
+      <c r="AK9" s="163"/>
+      <c r="AL9" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="184"/>
-      <c r="AN9" s="184"/>
-      <c r="AO9" s="184"/>
-      <c r="AP9" s="184"/>
-      <c r="AQ9" s="184"/>
-      <c r="AR9" s="184"/>
-      <c r="AS9" s="184"/>
-      <c r="AT9" s="184"/>
-      <c r="AU9" s="184"/>
-      <c r="AV9" s="184"/>
-      <c r="AW9" s="184"/>
-      <c r="AX9" s="184"/>
-      <c r="AY9" s="184"/>
-      <c r="AZ9" s="184"/>
-      <c r="BA9" s="184"/>
-      <c r="BB9" s="184"/>
-      <c r="BC9" s="184"/>
-      <c r="BD9" s="184"/>
-      <c r="BE9" s="184"/>
-      <c r="BF9" s="184"/>
-      <c r="BG9" s="184"/>
-      <c r="BH9" s="184"/>
-      <c r="BI9" s="184"/>
+      <c r="AM9" s="164"/>
+      <c r="AN9" s="164"/>
+      <c r="AO9" s="164"/>
+      <c r="AP9" s="164"/>
+      <c r="AQ9" s="164"/>
+      <c r="AR9" s="164"/>
+      <c r="AS9" s="164"/>
+      <c r="AT9" s="164"/>
+      <c r="AU9" s="164"/>
+      <c r="AV9" s="164"/>
+      <c r="AW9" s="164"/>
+      <c r="AX9" s="164"/>
+      <c r="AY9" s="164"/>
+      <c r="AZ9" s="164"/>
+      <c r="BA9" s="164"/>
+      <c r="BB9" s="164"/>
+      <c r="BC9" s="164"/>
+      <c r="BD9" s="164"/>
+      <c r="BE9" s="164"/>
+      <c r="BF9" s="164"/>
+      <c r="BG9" s="164"/>
+      <c r="BH9" s="164"/>
+      <c r="BI9" s="164"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -3401,328 +3255,328 @@
       <c r="B12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="165" t="s">
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="165" t="s">
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="165"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="165"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="165"/>
-      <c r="Y12" s="165"/>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="164" t="s">
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="153"/>
+      <c r="AA12" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="164"/>
-      <c r="AI12" s="164" t="s">
+      <c r="AB12" s="159"/>
+      <c r="AC12" s="159"/>
+      <c r="AD12" s="159"/>
+      <c r="AE12" s="159"/>
+      <c r="AF12" s="159"/>
+      <c r="AG12" s="159"/>
+      <c r="AH12" s="159"/>
+      <c r="AI12" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="164"/>
-      <c r="AL12" s="164"/>
-      <c r="AM12" s="164"/>
-      <c r="AN12" s="164"/>
-      <c r="AO12" s="164"/>
-      <c r="AP12" s="164"/>
-      <c r="AQ12" s="164"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="164"/>
-      <c r="AT12" s="164"/>
-      <c r="AU12" s="164"/>
-      <c r="AV12" s="164"/>
-      <c r="AW12" s="164"/>
-      <c r="AX12" s="164"/>
-      <c r="AY12" s="164"/>
-      <c r="AZ12" s="164"/>
-      <c r="BA12" s="176" t="s">
+      <c r="AJ12" s="159"/>
+      <c r="AK12" s="159"/>
+      <c r="AL12" s="159"/>
+      <c r="AM12" s="159"/>
+      <c r="AN12" s="159"/>
+      <c r="AO12" s="159"/>
+      <c r="AP12" s="159"/>
+      <c r="AQ12" s="159"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="159"/>
+      <c r="AT12" s="159"/>
+      <c r="AU12" s="159"/>
+      <c r="AV12" s="159"/>
+      <c r="AW12" s="159"/>
+      <c r="AX12" s="159"/>
+      <c r="AY12" s="159"/>
+      <c r="AZ12" s="159"/>
+      <c r="BA12" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="BB12" s="165"/>
-      <c r="BC12" s="165"/>
-      <c r="BD12" s="165"/>
-      <c r="BE12" s="165"/>
-      <c r="BF12" s="165"/>
-      <c r="BG12" s="165"/>
-      <c r="BH12" s="166"/>
-      <c r="DI12" s="165" t="s">
+      <c r="BB12" s="152"/>
+      <c r="BC12" s="152"/>
+      <c r="BD12" s="152"/>
+      <c r="BE12" s="152"/>
+      <c r="BF12" s="152"/>
+      <c r="BG12" s="152"/>
+      <c r="BH12" s="153"/>
+      <c r="DI12" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="DJ12" s="165"/>
-      <c r="DK12" s="165"/>
-      <c r="DL12" s="165"/>
-      <c r="DM12" s="165"/>
-      <c r="DN12" s="165"/>
-      <c r="DO12" s="165"/>
-      <c r="DP12" s="166"/>
+      <c r="DJ12" s="152"/>
+      <c r="DK12" s="152"/>
+      <c r="DL12" s="152"/>
+      <c r="DM12" s="152"/>
+      <c r="DN12" s="152"/>
+      <c r="DO12" s="152"/>
+      <c r="DP12" s="153"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="30">
         <v>1</v>
       </c>
-      <c r="C13" s="155" t="s">
-        <v>75</v>
+      <c r="C13" s="156" t="s">
+        <v>73</v>
       </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="155" t="s">
-        <v>112</v>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="156" t="s">
+        <v>109</v>
       </c>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="155" t="s">
-        <v>112</v>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="157"/>
+      <c r="S13" s="156" t="s">
+        <v>109</v>
       </c>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="156"/>
-      <c r="AA13" s="178" t="s">
-        <v>112</v>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="157"/>
+      <c r="AA13" s="174" t="s">
+        <v>109</v>
       </c>
-      <c r="AB13" s="178"/>
-      <c r="AC13" s="178"/>
-      <c r="AD13" s="178"/>
-      <c r="AE13" s="178"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="178"/>
-      <c r="AH13" s="178"/>
-      <c r="AI13" s="178" t="s">
-        <v>112</v>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="174"/>
+      <c r="AH13" s="174"/>
+      <c r="AI13" s="174" t="s">
+        <v>109</v>
       </c>
-      <c r="AJ13" s="178"/>
-      <c r="AK13" s="178"/>
-      <c r="AL13" s="178"/>
-      <c r="AM13" s="178"/>
-      <c r="AN13" s="178"/>
-      <c r="AO13" s="178"/>
-      <c r="AP13" s="178"/>
-      <c r="AQ13" s="178"/>
-      <c r="AR13" s="178"/>
-      <c r="AS13" s="178"/>
-      <c r="AT13" s="178"/>
-      <c r="AU13" s="178"/>
-      <c r="AV13" s="178"/>
-      <c r="AW13" s="178"/>
-      <c r="AX13" s="178"/>
-      <c r="AY13" s="178"/>
-      <c r="AZ13" s="178"/>
-      <c r="BA13" s="177" t="s">
-        <v>112</v>
+      <c r="AJ13" s="174"/>
+      <c r="AK13" s="174"/>
+      <c r="AL13" s="174"/>
+      <c r="AM13" s="174"/>
+      <c r="AN13" s="174"/>
+      <c r="AO13" s="174"/>
+      <c r="AP13" s="174"/>
+      <c r="AQ13" s="174"/>
+      <c r="AR13" s="174"/>
+      <c r="AS13" s="174"/>
+      <c r="AT13" s="174"/>
+      <c r="AU13" s="174"/>
+      <c r="AV13" s="174"/>
+      <c r="AW13" s="174"/>
+      <c r="AX13" s="174"/>
+      <c r="AY13" s="174"/>
+      <c r="AZ13" s="174"/>
+      <c r="BA13" s="155" t="s">
+        <v>109</v>
       </c>
-      <c r="BB13" s="153"/>
-      <c r="BC13" s="153"/>
-      <c r="BD13" s="153"/>
-      <c r="BE13" s="153"/>
-      <c r="BF13" s="153"/>
-      <c r="BG13" s="153"/>
-      <c r="BH13" s="154"/>
-      <c r="DI13" s="153"/>
-      <c r="DJ13" s="153"/>
-      <c r="DK13" s="153"/>
-      <c r="DL13" s="153"/>
-      <c r="DM13" s="153"/>
-      <c r="DN13" s="153"/>
-      <c r="DO13" s="153"/>
-      <c r="DP13" s="154"/>
+      <c r="BB13" s="146"/>
+      <c r="BC13" s="146"/>
+      <c r="BD13" s="146"/>
+      <c r="BE13" s="146"/>
+      <c r="BF13" s="146"/>
+      <c r="BG13" s="146"/>
+      <c r="BH13" s="147"/>
+      <c r="DI13" s="146"/>
+      <c r="DJ13" s="146"/>
+      <c r="DK13" s="146"/>
+      <c r="DL13" s="146"/>
+      <c r="DM13" s="146"/>
+      <c r="DN13" s="146"/>
+      <c r="DO13" s="146"/>
+      <c r="DP13" s="147"/>
     </row>
     <row r="15" spans="1:258" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="117" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:258" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="165" t="s">
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="165" t="s">
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="165"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="164" t="s">
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="153"/>
+      <c r="AA16" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="164"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164" t="s">
+      <c r="AB16" s="159"/>
+      <c r="AC16" s="159"/>
+      <c r="AD16" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="AE16" s="164"/>
-      <c r="AF16" s="164"/>
-      <c r="AG16" s="179" t="s">
+      <c r="AE16" s="159"/>
+      <c r="AF16" s="159"/>
+      <c r="AG16" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="AH16" s="179"/>
-      <c r="AI16" s="179"/>
-      <c r="AJ16" s="179"/>
-      <c r="AK16" s="179"/>
-      <c r="AL16" s="179"/>
-      <c r="AM16" s="179"/>
-      <c r="AN16" s="179"/>
-      <c r="AO16" s="179"/>
-      <c r="AP16" s="179"/>
-      <c r="AQ16" s="179"/>
-      <c r="AR16" s="179"/>
-      <c r="AS16" s="179"/>
-      <c r="AT16" s="179"/>
-      <c r="AU16" s="179"/>
-      <c r="AV16" s="179"/>
-      <c r="AW16" s="179"/>
-      <c r="AX16" s="179"/>
-      <c r="AY16" s="179"/>
-      <c r="AZ16" s="176"/>
-      <c r="BA16" s="165" t="s">
+      <c r="AH16" s="168"/>
+      <c r="AI16" s="168"/>
+      <c r="AJ16" s="168"/>
+      <c r="AK16" s="168"/>
+      <c r="AL16" s="168"/>
+      <c r="AM16" s="168"/>
+      <c r="AN16" s="168"/>
+      <c r="AO16" s="168"/>
+      <c r="AP16" s="168"/>
+      <c r="AQ16" s="168"/>
+      <c r="AR16" s="168"/>
+      <c r="AS16" s="168"/>
+      <c r="AT16" s="168"/>
+      <c r="AU16" s="168"/>
+      <c r="AV16" s="168"/>
+      <c r="AW16" s="168"/>
+      <c r="AX16" s="168"/>
+      <c r="AY16" s="168"/>
+      <c r="AZ16" s="169"/>
+      <c r="BA16" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="BB16" s="165"/>
-      <c r="BC16" s="165"/>
-      <c r="BD16" s="165"/>
-      <c r="BE16" s="165"/>
-      <c r="BF16" s="165"/>
-      <c r="BG16" s="165"/>
-      <c r="BH16" s="166"/>
+      <c r="BB16" s="152"/>
+      <c r="BC16" s="152"/>
+      <c r="BD16" s="152"/>
+      <c r="BE16" s="152"/>
+      <c r="BF16" s="152"/>
+      <c r="BG16" s="152"/>
+      <c r="BH16" s="153"/>
     </row>
     <row r="17" spans="1:259" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="128">
         <v>1</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="160"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="160"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="162" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="162"/>
+      <c r="AF17" s="162"/>
+      <c r="AG17" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="185" t="s">
-        <v>82</v>
+      <c r="AH17" s="170"/>
+      <c r="AI17" s="170"/>
+      <c r="AJ17" s="170"/>
+      <c r="AK17" s="170"/>
+      <c r="AL17" s="170"/>
+      <c r="AM17" s="170"/>
+      <c r="AN17" s="170"/>
+      <c r="AO17" s="170"/>
+      <c r="AP17" s="170"/>
+      <c r="AQ17" s="170"/>
+      <c r="AR17" s="170"/>
+      <c r="AS17" s="170"/>
+      <c r="AT17" s="170"/>
+      <c r="AU17" s="170"/>
+      <c r="AV17" s="170"/>
+      <c r="AW17" s="170"/>
+      <c r="AX17" s="170"/>
+      <c r="AY17" s="170"/>
+      <c r="AZ17" s="171"/>
+      <c r="BA17" s="172" t="s">
+        <v>73</v>
       </c>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="186"/>
-      <c r="S17" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="186"/>
-      <c r="AA17" s="187" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="187" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE17" s="187"/>
-      <c r="AF17" s="187"/>
-      <c r="AG17" s="180" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH17" s="180"/>
-      <c r="AI17" s="180"/>
-      <c r="AJ17" s="180"/>
-      <c r="AK17" s="180"/>
-      <c r="AL17" s="180"/>
-      <c r="AM17" s="180"/>
-      <c r="AN17" s="180"/>
-      <c r="AO17" s="180"/>
-      <c r="AP17" s="180"/>
-      <c r="AQ17" s="180"/>
-      <c r="AR17" s="180"/>
-      <c r="AS17" s="180"/>
-      <c r="AT17" s="180"/>
-      <c r="AU17" s="180"/>
-      <c r="AV17" s="180"/>
-      <c r="AW17" s="180"/>
-      <c r="AX17" s="180"/>
-      <c r="AY17" s="180"/>
-      <c r="AZ17" s="181"/>
-      <c r="BA17" s="182" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB17" s="182"/>
-      <c r="BC17" s="182"/>
-      <c r="BD17" s="182"/>
-      <c r="BE17" s="182"/>
-      <c r="BF17" s="182"/>
-      <c r="BG17" s="182"/>
-      <c r="BH17" s="183"/>
+      <c r="BB17" s="172"/>
+      <c r="BC17" s="172"/>
+      <c r="BD17" s="172"/>
+      <c r="BE17" s="172"/>
+      <c r="BF17" s="172"/>
+      <c r="BG17" s="172"/>
+      <c r="BH17" s="173"/>
     </row>
     <row r="18" spans="1:259" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:259" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3735,232 +3589,232 @@
       <c r="B21" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="165" t="s">
+      <c r="C21" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="165" t="s">
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="165" t="s">
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="165"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="164" t="s">
+      <c r="T21" s="152"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="152"/>
+      <c r="W21" s="152"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="152"/>
+      <c r="Z21" s="153"/>
+      <c r="AA21" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="164"/>
-      <c r="AD21" s="164" t="s">
+      <c r="AB21" s="159"/>
+      <c r="AC21" s="159"/>
+      <c r="AD21" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="179" t="s">
+      <c r="AE21" s="159"/>
+      <c r="AF21" s="159"/>
+      <c r="AG21" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="AH21" s="179"/>
-      <c r="AI21" s="179"/>
-      <c r="AJ21" s="179"/>
-      <c r="AK21" s="179"/>
-      <c r="AL21" s="179"/>
-      <c r="AM21" s="179"/>
-      <c r="AN21" s="179"/>
-      <c r="AO21" s="179"/>
-      <c r="AP21" s="179"/>
-      <c r="AQ21" s="179"/>
-      <c r="AR21" s="179"/>
-      <c r="AS21" s="179"/>
-      <c r="AT21" s="179"/>
-      <c r="AU21" s="179"/>
-      <c r="AV21" s="179"/>
-      <c r="AW21" s="179"/>
-      <c r="AX21" s="179"/>
-      <c r="AY21" s="179"/>
-      <c r="AZ21" s="176"/>
-      <c r="BA21" s="165" t="s">
+      <c r="AH21" s="168"/>
+      <c r="AI21" s="168"/>
+      <c r="AJ21" s="168"/>
+      <c r="AK21" s="168"/>
+      <c r="AL21" s="168"/>
+      <c r="AM21" s="168"/>
+      <c r="AN21" s="168"/>
+      <c r="AO21" s="168"/>
+      <c r="AP21" s="168"/>
+      <c r="AQ21" s="168"/>
+      <c r="AR21" s="168"/>
+      <c r="AS21" s="168"/>
+      <c r="AT21" s="168"/>
+      <c r="AU21" s="168"/>
+      <c r="AV21" s="168"/>
+      <c r="AW21" s="168"/>
+      <c r="AX21" s="168"/>
+      <c r="AY21" s="168"/>
+      <c r="AZ21" s="169"/>
+      <c r="BA21" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="BB21" s="165"/>
-      <c r="BC21" s="165"/>
-      <c r="BD21" s="165"/>
-      <c r="BE21" s="165"/>
-      <c r="BF21" s="165"/>
-      <c r="BG21" s="165"/>
-      <c r="BH21" s="166"/>
+      <c r="BB21" s="152"/>
+      <c r="BC21" s="152"/>
+      <c r="BD21" s="152"/>
+      <c r="BE21" s="152"/>
+      <c r="BF21" s="152"/>
+      <c r="BG21" s="152"/>
+      <c r="BH21" s="153"/>
     </row>
     <row r="22" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="67">
         <v>1</v>
       </c>
-      <c r="C22" s="155" t="s">
-        <v>85</v>
+      <c r="C22" s="156" t="s">
+        <v>83</v>
       </c>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="155" t="s">
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="155" t="s">
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="157" t="s">
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="AB22" s="157"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="157" t="s">
+      <c r="AB22" s="158"/>
+      <c r="AC22" s="158"/>
+      <c r="AD22" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="192" t="s">
+      <c r="AE22" s="158"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AH22" s="192"/>
-      <c r="AI22" s="192"/>
-      <c r="AJ22" s="192"/>
-      <c r="AK22" s="192"/>
-      <c r="AL22" s="192"/>
-      <c r="AM22" s="192"/>
-      <c r="AN22" s="192"/>
-      <c r="AO22" s="192"/>
-      <c r="AP22" s="192"/>
-      <c r="AQ22" s="192"/>
-      <c r="AR22" s="192"/>
-      <c r="AS22" s="192"/>
-      <c r="AT22" s="192"/>
-      <c r="AU22" s="192"/>
-      <c r="AV22" s="192"/>
-      <c r="AW22" s="192"/>
-      <c r="AX22" s="192"/>
-      <c r="AY22" s="192"/>
-      <c r="AZ22" s="177"/>
-      <c r="BA22" s="153" t="s">
-        <v>112</v>
+      <c r="AH22" s="154"/>
+      <c r="AI22" s="154"/>
+      <c r="AJ22" s="154"/>
+      <c r="AK22" s="154"/>
+      <c r="AL22" s="154"/>
+      <c r="AM22" s="154"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
+      <c r="AQ22" s="154"/>
+      <c r="AR22" s="154"/>
+      <c r="AS22" s="154"/>
+      <c r="AT22" s="154"/>
+      <c r="AU22" s="154"/>
+      <c r="AV22" s="154"/>
+      <c r="AW22" s="154"/>
+      <c r="AX22" s="154"/>
+      <c r="AY22" s="154"/>
+      <c r="AZ22" s="155"/>
+      <c r="BA22" s="146" t="s">
+        <v>109</v>
       </c>
-      <c r="BB22" s="153"/>
-      <c r="BC22" s="153"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="154"/>
+      <c r="BB22" s="146"/>
+      <c r="BC22" s="146"/>
+      <c r="BD22" s="146"/>
+      <c r="BE22" s="146"/>
+      <c r="BF22" s="146"/>
+      <c r="BG22" s="146"/>
+      <c r="BH22" s="147"/>
     </row>
     <row r="23" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="67">
         <v>2</v>
       </c>
-      <c r="C23" s="155" t="s">
-        <v>86</v>
+      <c r="C23" s="156" t="s">
+        <v>84</v>
       </c>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="155" t="s">
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="155" t="s">
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="157" t="s">
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="157"/>
+      <c r="AA23" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="157"/>
-      <c r="AC23" s="157"/>
-      <c r="AD23" s="157" t="s">
+      <c r="AB23" s="158"/>
+      <c r="AC23" s="158"/>
+      <c r="AD23" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="AE23" s="157"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="192" t="s">
+      <c r="AE23" s="158"/>
+      <c r="AF23" s="158"/>
+      <c r="AG23" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AH23" s="192"/>
-      <c r="AI23" s="192"/>
-      <c r="AJ23" s="192"/>
-      <c r="AK23" s="192"/>
-      <c r="AL23" s="192"/>
-      <c r="AM23" s="192"/>
-      <c r="AN23" s="192"/>
-      <c r="AO23" s="192"/>
-      <c r="AP23" s="192"/>
-      <c r="AQ23" s="192"/>
-      <c r="AR23" s="192"/>
-      <c r="AS23" s="192"/>
-      <c r="AT23" s="192"/>
-      <c r="AU23" s="192"/>
-      <c r="AV23" s="192"/>
-      <c r="AW23" s="192"/>
-      <c r="AX23" s="192"/>
-      <c r="AY23" s="192"/>
-      <c r="AZ23" s="177"/>
-      <c r="BA23" s="153" t="s">
-        <v>112</v>
+      <c r="AH23" s="154"/>
+      <c r="AI23" s="154"/>
+      <c r="AJ23" s="154"/>
+      <c r="AK23" s="154"/>
+      <c r="AL23" s="154"/>
+      <c r="AM23" s="154"/>
+      <c r="AN23" s="154"/>
+      <c r="AO23" s="154"/>
+      <c r="AP23" s="154"/>
+      <c r="AQ23" s="154"/>
+      <c r="AR23" s="154"/>
+      <c r="AS23" s="154"/>
+      <c r="AT23" s="154"/>
+      <c r="AU23" s="154"/>
+      <c r="AV23" s="154"/>
+      <c r="AW23" s="154"/>
+      <c r="AX23" s="154"/>
+      <c r="AY23" s="154"/>
+      <c r="AZ23" s="155"/>
+      <c r="BA23" s="146" t="s">
+        <v>109</v>
       </c>
-      <c r="BB23" s="153"/>
-      <c r="BC23" s="153"/>
-      <c r="BD23" s="153"/>
-      <c r="BE23" s="153"/>
-      <c r="BF23" s="153"/>
-      <c r="BG23" s="153"/>
-      <c r="BH23" s="154"/>
+      <c r="BB23" s="146"/>
+      <c r="BC23" s="146"/>
+      <c r="BD23" s="146"/>
+      <c r="BE23" s="146"/>
+      <c r="BF23" s="146"/>
+      <c r="BG23" s="146"/>
+      <c r="BH23" s="147"/>
     </row>
     <row r="25" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
@@ -4230,74 +4084,74 @@
       <c r="B26" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="164" t="s">
+      <c r="C26" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164" t="s">
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
-      <c r="X26" s="164"/>
-      <c r="Y26" s="164"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="158" t="s">
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="159"/>
+      <c r="Y26" s="159"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="159"/>
-      <c r="AD26" s="159"/>
-      <c r="AE26" s="159"/>
-      <c r="AF26" s="159"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="159"/>
-      <c r="AJ26" s="159"/>
-      <c r="AK26" s="159"/>
-      <c r="AL26" s="159"/>
-      <c r="AM26" s="159"/>
-      <c r="AN26" s="159"/>
-      <c r="AO26" s="159"/>
-      <c r="AP26" s="159"/>
-      <c r="AQ26" s="159"/>
-      <c r="AR26" s="159"/>
-      <c r="AS26" s="159"/>
-      <c r="AT26" s="159"/>
-      <c r="AU26" s="159"/>
-      <c r="AV26" s="159"/>
-      <c r="AW26" s="159"/>
-      <c r="AX26" s="159"/>
-      <c r="AY26" s="159"/>
-      <c r="AZ26" s="160"/>
-      <c r="BA26" s="165" t="s">
+      <c r="AB26" s="188"/>
+      <c r="AC26" s="188"/>
+      <c r="AD26" s="188"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="188"/>
+      <c r="AG26" s="188"/>
+      <c r="AH26" s="188"/>
+      <c r="AI26" s="188"/>
+      <c r="AJ26" s="188"/>
+      <c r="AK26" s="188"/>
+      <c r="AL26" s="188"/>
+      <c r="AM26" s="188"/>
+      <c r="AN26" s="188"/>
+      <c r="AO26" s="188"/>
+      <c r="AP26" s="188"/>
+      <c r="AQ26" s="188"/>
+      <c r="AR26" s="188"/>
+      <c r="AS26" s="188"/>
+      <c r="AT26" s="188"/>
+      <c r="AU26" s="188"/>
+      <c r="AV26" s="188"/>
+      <c r="AW26" s="188"/>
+      <c r="AX26" s="188"/>
+      <c r="AY26" s="188"/>
+      <c r="AZ26" s="189"/>
+      <c r="BA26" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="BB26" s="165"/>
-      <c r="BC26" s="165"/>
-      <c r="BD26" s="165"/>
-      <c r="BE26" s="165"/>
-      <c r="BF26" s="165"/>
-      <c r="BG26" s="165"/>
-      <c r="BH26" s="166"/>
+      <c r="BB26" s="152"/>
+      <c r="BC26" s="152"/>
+      <c r="BD26" s="152"/>
+      <c r="BE26" s="152"/>
+      <c r="BF26" s="152"/>
+      <c r="BG26" s="152"/>
+      <c r="BH26" s="153"/>
       <c r="BI26" s="36"/>
       <c r="BJ26" s="3"/>
       <c r="BK26" s="1"/>
@@ -4503,74 +4357,74 @@
       <c r="B27" s="52">
         <v>1</v>
       </c>
-      <c r="C27" s="188" t="s">
+      <c r="C27" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="188" t="s">
-        <v>84</v>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="148" t="s">
+        <v>82</v>
       </c>
-      <c r="L27" s="189"/>
-      <c r="M27" s="189"/>
-      <c r="N27" s="189"/>
-      <c r="O27" s="189"/>
-      <c r="P27" s="189"/>
-      <c r="Q27" s="189"/>
-      <c r="R27" s="190"/>
-      <c r="S27" s="191" t="s">
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="149"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="T27" s="191"/>
-      <c r="U27" s="191"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="161" t="s">
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="162"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="162"/>
-      <c r="AH27" s="162"/>
-      <c r="AI27" s="162"/>
-      <c r="AJ27" s="162"/>
-      <c r="AK27" s="162"/>
-      <c r="AL27" s="162"/>
-      <c r="AM27" s="162"/>
-      <c r="AN27" s="162"/>
-      <c r="AO27" s="162"/>
-      <c r="AP27" s="162"/>
-      <c r="AQ27" s="162"/>
-      <c r="AR27" s="162"/>
-      <c r="AS27" s="162"/>
-      <c r="AT27" s="162"/>
-      <c r="AU27" s="162"/>
-      <c r="AV27" s="162"/>
-      <c r="AW27" s="162"/>
-      <c r="AX27" s="162"/>
-      <c r="AY27" s="162"/>
-      <c r="AZ27" s="163"/>
-      <c r="BA27" s="153" t="s">
-        <v>75</v>
+      <c r="AB27" s="191"/>
+      <c r="AC27" s="191"/>
+      <c r="AD27" s="191"/>
+      <c r="AE27" s="191"/>
+      <c r="AF27" s="191"/>
+      <c r="AG27" s="191"/>
+      <c r="AH27" s="191"/>
+      <c r="AI27" s="191"/>
+      <c r="AJ27" s="191"/>
+      <c r="AK27" s="191"/>
+      <c r="AL27" s="191"/>
+      <c r="AM27" s="191"/>
+      <c r="AN27" s="191"/>
+      <c r="AO27" s="191"/>
+      <c r="AP27" s="191"/>
+      <c r="AQ27" s="191"/>
+      <c r="AR27" s="191"/>
+      <c r="AS27" s="191"/>
+      <c r="AT27" s="191"/>
+      <c r="AU27" s="191"/>
+      <c r="AV27" s="191"/>
+      <c r="AW27" s="191"/>
+      <c r="AX27" s="191"/>
+      <c r="AY27" s="191"/>
+      <c r="AZ27" s="192"/>
+      <c r="BA27" s="146" t="s">
+        <v>73</v>
       </c>
-      <c r="BB27" s="153"/>
-      <c r="BC27" s="153"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="154"/>
+      <c r="BB27" s="146"/>
+      <c r="BC27" s="146"/>
+      <c r="BD27" s="146"/>
+      <c r="BE27" s="146"/>
+      <c r="BF27" s="146"/>
+      <c r="BG27" s="146"/>
+      <c r="BH27" s="147"/>
       <c r="BI27" s="36"/>
       <c r="BJ27" s="3"/>
       <c r="BK27" s="1"/>
@@ -4776,74 +4630,74 @@
       <c r="B28" s="52">
         <v>2</v>
       </c>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="180" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="180" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="183" t="s">
+        <v>101</v>
+      </c>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="146" t="s">
-        <v>116</v>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="185"/>
+      <c r="AD28" s="185"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="185"/>
+      <c r="AG28" s="185"/>
+      <c r="AH28" s="185"/>
+      <c r="AI28" s="185"/>
+      <c r="AJ28" s="185"/>
+      <c r="AK28" s="185"/>
+      <c r="AL28" s="185"/>
+      <c r="AM28" s="185"/>
+      <c r="AN28" s="185"/>
+      <c r="AO28" s="185"/>
+      <c r="AP28" s="185"/>
+      <c r="AQ28" s="185"/>
+      <c r="AR28" s="185"/>
+      <c r="AS28" s="185"/>
+      <c r="AT28" s="185"/>
+      <c r="AU28" s="185"/>
+      <c r="AV28" s="185"/>
+      <c r="AW28" s="185"/>
+      <c r="AX28" s="185"/>
+      <c r="AY28" s="185"/>
+      <c r="AZ28" s="186"/>
+      <c r="BA28" s="146" t="s">
+        <v>73</v>
       </c>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="149" t="s">
-        <v>104</v>
-      </c>
-      <c r="T28" s="149"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="149"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
-      <c r="Y28" s="149"/>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="150" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
-      <c r="AE28" s="151"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="151"/>
-      <c r="AJ28" s="151"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="151"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="151"/>
-      <c r="AP28" s="151"/>
-      <c r="AQ28" s="151"/>
-      <c r="AR28" s="151"/>
-      <c r="AS28" s="151"/>
-      <c r="AT28" s="151"/>
-      <c r="AU28" s="151"/>
-      <c r="AV28" s="151"/>
-      <c r="AW28" s="151"/>
-      <c r="AX28" s="151"/>
-      <c r="AY28" s="151"/>
-      <c r="AZ28" s="152"/>
-      <c r="BA28" s="153" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB28" s="153"/>
-      <c r="BC28" s="153"/>
-      <c r="BD28" s="153"/>
-      <c r="BE28" s="153"/>
-      <c r="BF28" s="153"/>
-      <c r="BG28" s="153"/>
-      <c r="BH28" s="154"/>
+      <c r="BB28" s="146"/>
+      <c r="BC28" s="146"/>
+      <c r="BD28" s="146"/>
+      <c r="BE28" s="146"/>
+      <c r="BF28" s="146"/>
+      <c r="BG28" s="146"/>
+      <c r="BH28" s="147"/>
       <c r="BI28" s="20"/>
       <c r="BJ28" s="3"/>
       <c r="BK28" s="1"/>
@@ -5049,74 +4903,74 @@
       <c r="B29" s="114">
         <v>3</v>
       </c>
-      <c r="C29" s="146" t="s">
-        <v>106</v>
+      <c r="C29" s="180" t="s">
+        <v>103</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="146" t="s">
-        <v>117</v>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="180" t="s">
+        <v>114</v>
       </c>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="149" t="s">
-        <v>107</v>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="183" t="s">
+        <v>104</v>
       </c>
-      <c r="T29" s="149"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="149"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="150" t="s">
-        <v>108</v>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="183"/>
+      <c r="AA29" s="184" t="s">
+        <v>105</v>
       </c>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
-      <c r="AE29" s="151"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="151"/>
-      <c r="AJ29" s="151"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="151"/>
-      <c r="AM29" s="151"/>
-      <c r="AN29" s="151"/>
-      <c r="AO29" s="151"/>
-      <c r="AP29" s="151"/>
-      <c r="AQ29" s="151"/>
-      <c r="AR29" s="151"/>
-      <c r="AS29" s="151"/>
-      <c r="AT29" s="151"/>
-      <c r="AU29" s="151"/>
-      <c r="AV29" s="151"/>
-      <c r="AW29" s="151"/>
-      <c r="AX29" s="151"/>
-      <c r="AY29" s="151"/>
-      <c r="AZ29" s="152"/>
-      <c r="BA29" s="153" t="s">
-        <v>75</v>
+      <c r="AB29" s="185"/>
+      <c r="AC29" s="185"/>
+      <c r="AD29" s="185"/>
+      <c r="AE29" s="185"/>
+      <c r="AF29" s="185"/>
+      <c r="AG29" s="185"/>
+      <c r="AH29" s="185"/>
+      <c r="AI29" s="185"/>
+      <c r="AJ29" s="185"/>
+      <c r="AK29" s="185"/>
+      <c r="AL29" s="185"/>
+      <c r="AM29" s="185"/>
+      <c r="AN29" s="185"/>
+      <c r="AO29" s="185"/>
+      <c r="AP29" s="185"/>
+      <c r="AQ29" s="185"/>
+      <c r="AR29" s="185"/>
+      <c r="AS29" s="185"/>
+      <c r="AT29" s="185"/>
+      <c r="AU29" s="185"/>
+      <c r="AV29" s="185"/>
+      <c r="AW29" s="185"/>
+      <c r="AX29" s="185"/>
+      <c r="AY29" s="185"/>
+      <c r="AZ29" s="186"/>
+      <c r="BA29" s="146" t="s">
+        <v>73</v>
       </c>
-      <c r="BB29" s="153"/>
-      <c r="BC29" s="153"/>
-      <c r="BD29" s="153"/>
-      <c r="BE29" s="153"/>
-      <c r="BF29" s="153"/>
-      <c r="BG29" s="153"/>
-      <c r="BH29" s="154"/>
+      <c r="BB29" s="146"/>
+      <c r="BC29" s="146"/>
+      <c r="BD29" s="146"/>
+      <c r="BE29" s="146"/>
+      <c r="BF29" s="146"/>
+      <c r="BG29" s="146"/>
+      <c r="BH29" s="147"/>
       <c r="BI29" s="120"/>
       <c r="BJ29" s="112"/>
       <c r="BK29" s="110"/>
@@ -5319,6 +5173,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:Z29"/>
+    <mergeCell ref="AA29:AZ29"/>
+    <mergeCell ref="BA29:BH29"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="AA26:AZ26"/>
+    <mergeCell ref="AA27:AZ27"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="BA28:BH28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="AA28:AZ28"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AI12:AZ12"/>
+    <mergeCell ref="AI13:AZ13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="DI12:DP12"/>
+    <mergeCell ref="DI13:DP13"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="BA21:BH21"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AL9:BI9"/>
+    <mergeCell ref="G6:BI6"/>
+    <mergeCell ref="G9:AE9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:BI8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:BI7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
     <mergeCell ref="BA22:BH22"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="K27:R27"/>
@@ -5335,90 +5273,6 @@
     <mergeCell ref="AD22:AF22"/>
     <mergeCell ref="AG22:AZ22"/>
     <mergeCell ref="K23:R23"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AL9:BI9"/>
-    <mergeCell ref="G6:BI6"/>
-    <mergeCell ref="G9:AE9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:BI8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:BI7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="DI12:DP12"/>
-    <mergeCell ref="DI13:DP13"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="BA16:BH16"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="BA17:BH17"/>
-    <mergeCell ref="BA21:BH21"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="BA12:BH12"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AI12:AZ12"/>
-    <mergeCell ref="AI13:AZ13"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="BA28:BH28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="AA28:AZ28"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="AA26:AZ26"/>
-    <mergeCell ref="AA27:AZ27"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="S29:Z29"/>
-    <mergeCell ref="AA29:AZ29"/>
-    <mergeCell ref="BA29:BH29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5437,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:JA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5450,89 +5304,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="172" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="171" t="str">
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="176" t="str">
         <f>クラス仕様!R1</f>
-        <v>商品購入</v>
+        <v>商品検索</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="172" t="s">
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="171" t="str">
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="176" t="str">
         <f>クラス仕様!AE1</f>
         <v>メイン画面遷移</v>
       </c>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="171"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="172" t="s">
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
+      <c r="AK1" s="176"/>
+      <c r="AL1" s="176"/>
+      <c r="AM1" s="176"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="176"/>
+      <c r="AP1" s="176"/>
+      <c r="AQ1" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="172"/>
-      <c r="AS1" s="172"/>
-      <c r="AT1" s="171" t="s">
+      <c r="AR1" s="175"/>
+      <c r="AS1" s="175"/>
+      <c r="AT1" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="214" t="s">
+      <c r="AU1" s="176"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="176"/>
+      <c r="AX1" s="176"/>
+      <c r="AY1" s="176"/>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="215"/>
-      <c r="BC1" s="215"/>
-      <c r="BD1" s="215"/>
-      <c r="BE1" s="216"/>
-      <c r="BF1" s="174">
+      <c r="BB1" s="202"/>
+      <c r="BC1" s="202"/>
+      <c r="BD1" s="202"/>
+      <c r="BE1" s="203"/>
+      <c r="BF1" s="178">
         <v>45909</v>
       </c>
-      <c r="BG1" s="174"/>
-      <c r="BH1" s="174"/>
-      <c r="BI1" s="174"/>
-      <c r="BJ1" s="174"/>
-      <c r="BK1" s="174"/>
+      <c r="BG1" s="178"/>
+      <c r="BH1" s="178"/>
+      <c r="BI1" s="178"/>
+      <c r="BJ1" s="178"/>
+      <c r="BK1" s="178"/>
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
       <c r="BN1" s="1"/>
@@ -5732,82 +5586,82 @@
       <c r="IZ1" s="1"/>
     </row>
     <row r="2" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="172" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="172" t="s">
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="171" t="str">
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="176" t="str">
         <f>クラス仕様!G6</f>
         <v>MainServlert</v>
       </c>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="171"/>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="172" t="s">
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="176"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="176"/>
+      <c r="AJ2" s="176"/>
+      <c r="AK2" s="176"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="172"/>
-      <c r="AS2" s="172"/>
-      <c r="AT2" s="171"/>
-      <c r="AU2" s="171"/>
-      <c r="AV2" s="171"/>
-      <c r="AW2" s="171"/>
-      <c r="AX2" s="171"/>
-      <c r="AY2" s="171"/>
-      <c r="AZ2" s="171"/>
-      <c r="BA2" s="214" t="s">
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="176"/>
+      <c r="AU2" s="176"/>
+      <c r="AV2" s="176"/>
+      <c r="AW2" s="176"/>
+      <c r="AX2" s="176"/>
+      <c r="AY2" s="176"/>
+      <c r="AZ2" s="176"/>
+      <c r="BA2" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="215"/>
-      <c r="BC2" s="215"/>
-      <c r="BD2" s="215"/>
-      <c r="BE2" s="216"/>
-      <c r="BF2" s="174">
+      <c r="BB2" s="202"/>
+      <c r="BC2" s="202"/>
+      <c r="BD2" s="202"/>
+      <c r="BE2" s="203"/>
+      <c r="BF2" s="178">
         <v>45924</v>
       </c>
-      <c r="BG2" s="174"/>
-      <c r="BH2" s="174"/>
-      <c r="BI2" s="174"/>
-      <c r="BJ2" s="174"/>
-      <c r="BK2" s="174"/>
+      <c r="BG2" s="178"/>
+      <c r="BH2" s="178"/>
+      <c r="BI2" s="178"/>
+      <c r="BJ2" s="178"/>
+      <c r="BK2" s="178"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
@@ -6007,73 +5861,73 @@
       <c r="IZ2" s="1"/>
     </row>
     <row r="4" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="211" t="s">
-        <v>100</v>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="198" t="s">
+        <v>133</v>
       </c>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="211"/>
-      <c r="S4" s="211"/>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="211"/>
-      <c r="W4" s="211"/>
-      <c r="X4" s="211"/>
-      <c r="Y4" s="211"/>
-      <c r="Z4" s="211"/>
-      <c r="AA4" s="211"/>
-      <c r="AB4" s="211"/>
-      <c r="AC4" s="211"/>
-      <c r="AD4" s="211"/>
-      <c r="AE4" s="211"/>
-      <c r="AF4" s="211"/>
-      <c r="AG4" s="211"/>
-      <c r="AH4" s="211"/>
-      <c r="AI4" s="211"/>
-      <c r="AJ4" s="211"/>
-      <c r="AK4" s="211"/>
-      <c r="AL4" s="211"/>
-      <c r="AM4" s="211"/>
-      <c r="AN4" s="211"/>
-      <c r="AO4" s="211"/>
-      <c r="AP4" s="211"/>
-      <c r="AQ4" s="211"/>
-      <c r="AR4" s="211"/>
-      <c r="AS4" s="211"/>
-      <c r="AT4" s="211"/>
-      <c r="AU4" s="211"/>
-      <c r="AV4" s="211"/>
-      <c r="AW4" s="211"/>
-      <c r="AX4" s="211"/>
-      <c r="AY4" s="211"/>
-      <c r="AZ4" s="211"/>
-      <c r="BA4" s="211"/>
-      <c r="BB4" s="211"/>
-      <c r="BC4" s="211"/>
-      <c r="BD4" s="211"/>
-      <c r="BE4" s="211"/>
-      <c r="BF4" s="211"/>
-      <c r="BG4" s="211"/>
-      <c r="BH4" s="211"/>
-      <c r="BI4" s="211"/>
-      <c r="BJ4" s="211"/>
-      <c r="BK4" s="211"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="198"/>
+      <c r="W4" s="198"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="198"/>
+      <c r="Z4" s="198"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="198"/>
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="198"/>
+      <c r="AI4" s="198"/>
+      <c r="AJ4" s="198"/>
+      <c r="AK4" s="198"/>
+      <c r="AL4" s="198"/>
+      <c r="AM4" s="198"/>
+      <c r="AN4" s="198"/>
+      <c r="AO4" s="198"/>
+      <c r="AP4" s="198"/>
+      <c r="AQ4" s="198"/>
+      <c r="AR4" s="198"/>
+      <c r="AS4" s="198"/>
+      <c r="AT4" s="198"/>
+      <c r="AU4" s="198"/>
+      <c r="AV4" s="198"/>
+      <c r="AW4" s="198"/>
+      <c r="AX4" s="198"/>
+      <c r="AY4" s="198"/>
+      <c r="AZ4" s="198"/>
+      <c r="BA4" s="198"/>
+      <c r="BB4" s="198"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="198"/>
+      <c r="BI4" s="198"/>
+      <c r="BJ4" s="198"/>
+      <c r="BK4" s="198"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1"/>
       <c r="BN4" s="1"/>
@@ -6273,73 +6127,73 @@
       <c r="IZ4" s="1"/>
     </row>
     <row r="5" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="213" t="s">
-        <v>69</v>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200" t="s">
+        <v>68</v>
       </c>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="213"/>
-      <c r="V5" s="213"/>
-      <c r="W5" s="213"/>
-      <c r="X5" s="213"/>
-      <c r="Y5" s="213"/>
-      <c r="Z5" s="213"/>
-      <c r="AA5" s="213"/>
-      <c r="AB5" s="213"/>
-      <c r="AC5" s="213"/>
-      <c r="AD5" s="213"/>
-      <c r="AE5" s="213"/>
-      <c r="AF5" s="213"/>
-      <c r="AG5" s="213"/>
-      <c r="AH5" s="213"/>
-      <c r="AI5" s="213"/>
-      <c r="AJ5" s="213"/>
-      <c r="AK5" s="213"/>
-      <c r="AL5" s="213"/>
-      <c r="AM5" s="213"/>
-      <c r="AN5" s="213"/>
-      <c r="AO5" s="213"/>
-      <c r="AP5" s="213"/>
-      <c r="AQ5" s="213"/>
-      <c r="AR5" s="213"/>
-      <c r="AS5" s="213"/>
-      <c r="AT5" s="213"/>
-      <c r="AU5" s="213"/>
-      <c r="AV5" s="213"/>
-      <c r="AW5" s="213"/>
-      <c r="AX5" s="213"/>
-      <c r="AY5" s="213"/>
-      <c r="AZ5" s="213"/>
-      <c r="BA5" s="213"/>
-      <c r="BB5" s="213"/>
-      <c r="BC5" s="213"/>
-      <c r="BD5" s="213"/>
-      <c r="BE5" s="213"/>
-      <c r="BF5" s="213"/>
-      <c r="BG5" s="213"/>
-      <c r="BH5" s="213"/>
-      <c r="BI5" s="213"/>
-      <c r="BJ5" s="213"/>
-      <c r="BK5" s="213"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="200"/>
+      <c r="AF5" s="200"/>
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="200"/>
+      <c r="AM5" s="200"/>
+      <c r="AN5" s="200"/>
+      <c r="AO5" s="200"/>
+      <c r="AP5" s="200"/>
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="200"/>
+      <c r="AS5" s="200"/>
+      <c r="AT5" s="200"/>
+      <c r="AU5" s="200"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="200"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="200"/>
+      <c r="AZ5" s="200"/>
+      <c r="BA5" s="200"/>
+      <c r="BB5" s="200"/>
+      <c r="BC5" s="200"/>
+      <c r="BD5" s="200"/>
+      <c r="BE5" s="200"/>
+      <c r="BF5" s="200"/>
+      <c r="BG5" s="200"/>
+      <c r="BH5" s="200"/>
+      <c r="BI5" s="200"/>
+      <c r="BJ5" s="200"/>
+      <c r="BK5" s="200"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
@@ -7070,73 +6924,73 @@
       <c r="B8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164" t="s">
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164" t="s">
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="164" t="s">
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="159"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="164"/>
-      <c r="AD8" s="164"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="164"/>
-      <c r="AH8" s="164"/>
-      <c r="AI8" s="164"/>
-      <c r="AJ8" s="164"/>
-      <c r="AK8" s="164"/>
-      <c r="AL8" s="164"/>
-      <c r="AM8" s="164"/>
-      <c r="AN8" s="164"/>
-      <c r="AO8" s="164"/>
-      <c r="AP8" s="164"/>
-      <c r="AQ8" s="164"/>
-      <c r="AR8" s="164"/>
-      <c r="AS8" s="164"/>
-      <c r="AT8" s="164"/>
-      <c r="AU8" s="164"/>
-      <c r="AV8" s="164"/>
-      <c r="AW8" s="164"/>
-      <c r="AX8" s="164"/>
-      <c r="AY8" s="164"/>
-      <c r="AZ8" s="164"/>
-      <c r="BA8" s="164"/>
-      <c r="BB8" s="164"/>
-      <c r="BC8" s="164"/>
-      <c r="BD8" s="164"/>
-      <c r="BE8" s="164"/>
-      <c r="BF8" s="164"/>
-      <c r="BG8" s="164"/>
-      <c r="BH8" s="164"/>
-      <c r="BI8" s="164"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="159"/>
+      <c r="AF8" s="159"/>
+      <c r="AG8" s="159"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="159"/>
+      <c r="AJ8" s="159"/>
+      <c r="AK8" s="159"/>
+      <c r="AL8" s="159"/>
+      <c r="AM8" s="159"/>
+      <c r="AN8" s="159"/>
+      <c r="AO8" s="159"/>
+      <c r="AP8" s="159"/>
+      <c r="AQ8" s="159"/>
+      <c r="AR8" s="159"/>
+      <c r="AS8" s="159"/>
+      <c r="AT8" s="159"/>
+      <c r="AU8" s="159"/>
+      <c r="AV8" s="159"/>
+      <c r="AW8" s="159"/>
+      <c r="AX8" s="159"/>
+      <c r="AY8" s="159"/>
+      <c r="AZ8" s="159"/>
+      <c r="BA8" s="159"/>
+      <c r="BB8" s="159"/>
+      <c r="BC8" s="159"/>
+      <c r="BD8" s="159"/>
+      <c r="BE8" s="159"/>
+      <c r="BF8" s="159"/>
+      <c r="BG8" s="159"/>
+      <c r="BH8" s="159"/>
+      <c r="BI8" s="159"/>
       <c r="BJ8" s="20"/>
       <c r="BK8" s="36"/>
       <c r="BL8" s="3"/>
@@ -7343,73 +7197,73 @@
       <c r="B9" s="114">
         <v>1</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191" t="s">
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="191"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191" t="s">
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="201" t="s">
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="201"/>
-      <c r="AC9" s="201"/>
-      <c r="AD9" s="201"/>
-      <c r="AE9" s="201"/>
-      <c r="AF9" s="201"/>
-      <c r="AG9" s="201"/>
-      <c r="AH9" s="201"/>
-      <c r="AI9" s="201"/>
-      <c r="AJ9" s="201"/>
-      <c r="AK9" s="201"/>
-      <c r="AL9" s="201"/>
-      <c r="AM9" s="201"/>
-      <c r="AN9" s="201"/>
-      <c r="AO9" s="201"/>
-      <c r="AP9" s="201"/>
-      <c r="AQ9" s="201"/>
-      <c r="AR9" s="201"/>
-      <c r="AS9" s="201"/>
-      <c r="AT9" s="201"/>
-      <c r="AU9" s="201"/>
-      <c r="AV9" s="201"/>
-      <c r="AW9" s="201"/>
-      <c r="AX9" s="201"/>
-      <c r="AY9" s="201"/>
-      <c r="AZ9" s="201"/>
-      <c r="BA9" s="201"/>
-      <c r="BB9" s="201"/>
-      <c r="BC9" s="201"/>
-      <c r="BD9" s="201"/>
-      <c r="BE9" s="201"/>
-      <c r="BF9" s="201"/>
-      <c r="BG9" s="201"/>
-      <c r="BH9" s="201"/>
-      <c r="BI9" s="201"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207"/>
+      <c r="AE9" s="207"/>
+      <c r="AF9" s="207"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="207"/>
+      <c r="AI9" s="207"/>
+      <c r="AJ9" s="207"/>
+      <c r="AK9" s="207"/>
+      <c r="AL9" s="207"/>
+      <c r="AM9" s="207"/>
+      <c r="AN9" s="207"/>
+      <c r="AO9" s="207"/>
+      <c r="AP9" s="207"/>
+      <c r="AQ9" s="207"/>
+      <c r="AR9" s="207"/>
+      <c r="AS9" s="207"/>
+      <c r="AT9" s="207"/>
+      <c r="AU9" s="207"/>
+      <c r="AV9" s="207"/>
+      <c r="AW9" s="207"/>
+      <c r="AX9" s="207"/>
+      <c r="AY9" s="207"/>
+      <c r="AZ9" s="207"/>
+      <c r="BA9" s="207"/>
+      <c r="BB9" s="207"/>
+      <c r="BC9" s="207"/>
+      <c r="BD9" s="207"/>
+      <c r="BE9" s="207"/>
+      <c r="BF9" s="207"/>
+      <c r="BG9" s="207"/>
+      <c r="BH9" s="207"/>
+      <c r="BI9" s="207"/>
       <c r="BJ9" s="20"/>
       <c r="BK9" s="36"/>
       <c r="BL9" s="3"/>
@@ -7616,73 +7470,73 @@
       <c r="B10" s="114">
         <v>2</v>
       </c>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="191"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191" t="s">
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="201" t="s">
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="207" t="s">
         <v>56</v>
       </c>
-      <c r="AB10" s="201"/>
-      <c r="AC10" s="201"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="201"/>
-      <c r="AF10" s="201"/>
-      <c r="AG10" s="201"/>
-      <c r="AH10" s="201"/>
-      <c r="AI10" s="201"/>
-      <c r="AJ10" s="201"/>
-      <c r="AK10" s="201"/>
-      <c r="AL10" s="201"/>
-      <c r="AM10" s="201"/>
-      <c r="AN10" s="201"/>
-      <c r="AO10" s="201"/>
-      <c r="AP10" s="201"/>
-      <c r="AQ10" s="201"/>
-      <c r="AR10" s="201"/>
-      <c r="AS10" s="201"/>
-      <c r="AT10" s="201"/>
-      <c r="AU10" s="201"/>
-      <c r="AV10" s="201"/>
-      <c r="AW10" s="201"/>
-      <c r="AX10" s="201"/>
-      <c r="AY10" s="201"/>
-      <c r="AZ10" s="201"/>
-      <c r="BA10" s="201"/>
-      <c r="BB10" s="201"/>
-      <c r="BC10" s="201"/>
-      <c r="BD10" s="201"/>
-      <c r="BE10" s="201"/>
-      <c r="BF10" s="201"/>
-      <c r="BG10" s="201"/>
-      <c r="BH10" s="201"/>
-      <c r="BI10" s="201"/>
+      <c r="AB10" s="207"/>
+      <c r="AC10" s="207"/>
+      <c r="AD10" s="207"/>
+      <c r="AE10" s="207"/>
+      <c r="AF10" s="207"/>
+      <c r="AG10" s="207"/>
+      <c r="AH10" s="207"/>
+      <c r="AI10" s="207"/>
+      <c r="AJ10" s="207"/>
+      <c r="AK10" s="207"/>
+      <c r="AL10" s="207"/>
+      <c r="AM10" s="207"/>
+      <c r="AN10" s="207"/>
+      <c r="AO10" s="207"/>
+      <c r="AP10" s="207"/>
+      <c r="AQ10" s="207"/>
+      <c r="AR10" s="207"/>
+      <c r="AS10" s="207"/>
+      <c r="AT10" s="207"/>
+      <c r="AU10" s="207"/>
+      <c r="AV10" s="207"/>
+      <c r="AW10" s="207"/>
+      <c r="AX10" s="207"/>
+      <c r="AY10" s="207"/>
+      <c r="AZ10" s="207"/>
+      <c r="BA10" s="207"/>
+      <c r="BB10" s="207"/>
+      <c r="BC10" s="207"/>
+      <c r="BD10" s="207"/>
+      <c r="BE10" s="207"/>
+      <c r="BF10" s="207"/>
+      <c r="BG10" s="207"/>
+      <c r="BH10" s="207"/>
+      <c r="BI10" s="207"/>
       <c r="BJ10" s="20"/>
       <c r="BK10" s="36"/>
       <c r="BL10" s="3"/>
@@ -8154,73 +8008,73 @@
       <c r="B12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164" t="s">
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164" t="s">
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="164" t="s">
+      <c r="T12" s="159"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="159"/>
+      <c r="AA12" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="164"/>
-      <c r="AI12" s="164"/>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="164"/>
-      <c r="AL12" s="164"/>
-      <c r="AM12" s="164"/>
-      <c r="AN12" s="164"/>
-      <c r="AO12" s="164"/>
-      <c r="AP12" s="164"/>
-      <c r="AQ12" s="164"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="164"/>
-      <c r="AT12" s="164"/>
-      <c r="AU12" s="164"/>
-      <c r="AV12" s="164"/>
-      <c r="AW12" s="164"/>
-      <c r="AX12" s="164"/>
-      <c r="AY12" s="164"/>
-      <c r="AZ12" s="164"/>
-      <c r="BA12" s="164"/>
-      <c r="BB12" s="164"/>
-      <c r="BC12" s="164"/>
-      <c r="BD12" s="164"/>
-      <c r="BE12" s="164"/>
-      <c r="BF12" s="164"/>
-      <c r="BG12" s="164"/>
-      <c r="BH12" s="164"/>
-      <c r="BI12" s="164"/>
+      <c r="AB12" s="159"/>
+      <c r="AC12" s="159"/>
+      <c r="AD12" s="159"/>
+      <c r="AE12" s="159"/>
+      <c r="AF12" s="159"/>
+      <c r="AG12" s="159"/>
+      <c r="AH12" s="159"/>
+      <c r="AI12" s="159"/>
+      <c r="AJ12" s="159"/>
+      <c r="AK12" s="159"/>
+      <c r="AL12" s="159"/>
+      <c r="AM12" s="159"/>
+      <c r="AN12" s="159"/>
+      <c r="AO12" s="159"/>
+      <c r="AP12" s="159"/>
+      <c r="AQ12" s="159"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="159"/>
+      <c r="AT12" s="159"/>
+      <c r="AU12" s="159"/>
+      <c r="AV12" s="159"/>
+      <c r="AW12" s="159"/>
+      <c r="AX12" s="159"/>
+      <c r="AY12" s="159"/>
+      <c r="AZ12" s="159"/>
+      <c r="BA12" s="159"/>
+      <c r="BB12" s="159"/>
+      <c r="BC12" s="159"/>
+      <c r="BD12" s="159"/>
+      <c r="BE12" s="159"/>
+      <c r="BF12" s="159"/>
+      <c r="BG12" s="159"/>
+      <c r="BH12" s="159"/>
+      <c r="BI12" s="159"/>
       <c r="BJ12" s="20"/>
       <c r="BK12" s="36"/>
       <c r="BL12" s="3"/>
@@ -8427,73 +8281,73 @@
       <c r="B13" s="30">
         <v>1</v>
       </c>
-      <c r="C13" s="191" t="s">
-        <v>77</v>
+      <c r="C13" s="151" t="s">
+        <v>75</v>
       </c>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191" t="s">
-        <v>77</v>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151" t="s">
+        <v>75</v>
       </c>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
-      <c r="N13" s="191"/>
-      <c r="O13" s="191"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="191"/>
-      <c r="R13" s="191"/>
-      <c r="S13" s="191" t="s">
-        <v>77</v>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151" t="s">
+        <v>75</v>
       </c>
-      <c r="T13" s="191"/>
-      <c r="U13" s="191"/>
-      <c r="V13" s="191"/>
-      <c r="W13" s="191"/>
-      <c r="X13" s="191"/>
-      <c r="Y13" s="191"/>
-      <c r="Z13" s="191"/>
-      <c r="AA13" s="201" t="s">
-        <v>77</v>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="207" t="s">
+        <v>75</v>
       </c>
-      <c r="AB13" s="201"/>
-      <c r="AC13" s="201"/>
-      <c r="AD13" s="201"/>
-      <c r="AE13" s="201"/>
-      <c r="AF13" s="201"/>
-      <c r="AG13" s="201"/>
-      <c r="AH13" s="201"/>
-      <c r="AI13" s="201"/>
-      <c r="AJ13" s="201"/>
-      <c r="AK13" s="201"/>
-      <c r="AL13" s="201"/>
-      <c r="AM13" s="201"/>
-      <c r="AN13" s="201"/>
-      <c r="AO13" s="201"/>
-      <c r="AP13" s="201"/>
-      <c r="AQ13" s="201"/>
-      <c r="AR13" s="201"/>
-      <c r="AS13" s="201"/>
-      <c r="AT13" s="201"/>
-      <c r="AU13" s="201"/>
-      <c r="AV13" s="201"/>
-      <c r="AW13" s="201"/>
-      <c r="AX13" s="201"/>
-      <c r="AY13" s="201"/>
-      <c r="AZ13" s="201"/>
-      <c r="BA13" s="201"/>
-      <c r="BB13" s="201"/>
-      <c r="BC13" s="201"/>
-      <c r="BD13" s="201"/>
-      <c r="BE13" s="201"/>
-      <c r="BF13" s="201"/>
-      <c r="BG13" s="201"/>
-      <c r="BH13" s="201"/>
-      <c r="BI13" s="201"/>
+      <c r="AB13" s="207"/>
+      <c r="AC13" s="207"/>
+      <c r="AD13" s="207"/>
+      <c r="AE13" s="207"/>
+      <c r="AF13" s="207"/>
+      <c r="AG13" s="207"/>
+      <c r="AH13" s="207"/>
+      <c r="AI13" s="207"/>
+      <c r="AJ13" s="207"/>
+      <c r="AK13" s="207"/>
+      <c r="AL13" s="207"/>
+      <c r="AM13" s="207"/>
+      <c r="AN13" s="207"/>
+      <c r="AO13" s="207"/>
+      <c r="AP13" s="207"/>
+      <c r="AQ13" s="207"/>
+      <c r="AR13" s="207"/>
+      <c r="AS13" s="207"/>
+      <c r="AT13" s="207"/>
+      <c r="AU13" s="207"/>
+      <c r="AV13" s="207"/>
+      <c r="AW13" s="207"/>
+      <c r="AX13" s="207"/>
+      <c r="AY13" s="207"/>
+      <c r="AZ13" s="207"/>
+      <c r="BA13" s="207"/>
+      <c r="BB13" s="207"/>
+      <c r="BC13" s="207"/>
+      <c r="BD13" s="207"/>
+      <c r="BE13" s="207"/>
+      <c r="BF13" s="207"/>
+      <c r="BG13" s="207"/>
+      <c r="BH13" s="207"/>
+      <c r="BI13" s="207"/>
       <c r="BJ13" s="20"/>
       <c r="BK13" s="36"/>
       <c r="BL13" s="3"/>
@@ -9293,79 +9147,79 @@
       <c r="B17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="165" t="s">
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="165" t="s">
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="165"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="193" t="s">
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" s="176"/>
-      <c r="AC17" s="210" t="s">
+      <c r="AB17" s="169"/>
+      <c r="AC17" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="AD17" s="176"/>
-      <c r="AE17" s="210" t="s">
+      <c r="AD17" s="169"/>
+      <c r="AE17" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="179"/>
-      <c r="AJ17" s="179"/>
-      <c r="AK17" s="179"/>
-      <c r="AL17" s="179"/>
-      <c r="AM17" s="179"/>
-      <c r="AN17" s="179"/>
-      <c r="AO17" s="179"/>
-      <c r="AP17" s="179"/>
-      <c r="AQ17" s="179"/>
-      <c r="AR17" s="179"/>
-      <c r="AS17" s="179"/>
-      <c r="AT17" s="179"/>
-      <c r="AU17" s="179"/>
-      <c r="AV17" s="179"/>
-      <c r="AW17" s="179"/>
-      <c r="AX17" s="179"/>
-      <c r="AY17" s="164" t="s">
+      <c r="AF17" s="168"/>
+      <c r="AG17" s="168"/>
+      <c r="AH17" s="168"/>
+      <c r="AI17" s="168"/>
+      <c r="AJ17" s="168"/>
+      <c r="AK17" s="168"/>
+      <c r="AL17" s="168"/>
+      <c r="AM17" s="168"/>
+      <c r="AN17" s="168"/>
+      <c r="AO17" s="168"/>
+      <c r="AP17" s="168"/>
+      <c r="AQ17" s="168"/>
+      <c r="AR17" s="168"/>
+      <c r="AS17" s="168"/>
+      <c r="AT17" s="168"/>
+      <c r="AU17" s="168"/>
+      <c r="AV17" s="168"/>
+      <c r="AW17" s="168"/>
+      <c r="AX17" s="168"/>
+      <c r="AY17" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AZ17" s="164"/>
-      <c r="BA17" s="164"/>
-      <c r="BB17" s="164"/>
-      <c r="BC17" s="164"/>
-      <c r="BD17" s="164"/>
-      <c r="BE17" s="164"/>
-      <c r="BF17" s="164"/>
-      <c r="BG17" s="164"/>
-      <c r="BH17" s="164"/>
-      <c r="BI17" s="164"/>
+      <c r="AZ17" s="159"/>
+      <c r="BA17" s="159"/>
+      <c r="BB17" s="159"/>
+      <c r="BC17" s="159"/>
+      <c r="BD17" s="159"/>
+      <c r="BE17" s="159"/>
+      <c r="BF17" s="159"/>
+      <c r="BG17" s="159"/>
+      <c r="BH17" s="159"/>
+      <c r="BI17" s="159"/>
       <c r="BJ17" s="20"/>
       <c r="BK17" s="36"/>
       <c r="BL17" s="3"/>
@@ -9572,79 +9426,79 @@
       <c r="B18" s="128">
         <v>1</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="185" t="s">
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="160" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="160" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="160"/>
+      <c r="U18" s="160"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="196" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="196" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD18" s="197"/>
+      <c r="AE18" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="185" t="s">
-        <v>91</v>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="170"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="170"/>
+      <c r="AJ18" s="170"/>
+      <c r="AK18" s="170"/>
+      <c r="AL18" s="170"/>
+      <c r="AM18" s="170"/>
+      <c r="AN18" s="170"/>
+      <c r="AO18" s="170"/>
+      <c r="AP18" s="170"/>
+      <c r="AQ18" s="170"/>
+      <c r="AR18" s="170"/>
+      <c r="AS18" s="170"/>
+      <c r="AT18" s="170"/>
+      <c r="AU18" s="170"/>
+      <c r="AV18" s="170"/>
+      <c r="AW18" s="170"/>
+      <c r="AX18" s="170"/>
+      <c r="AY18" s="212" t="s">
+        <v>93</v>
       </c>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="195" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB18" s="196"/>
-      <c r="AC18" s="195" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD18" s="196"/>
-      <c r="AE18" s="197" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF18" s="180"/>
-      <c r="AG18" s="180"/>
-      <c r="AH18" s="180"/>
-      <c r="AI18" s="180"/>
-      <c r="AJ18" s="180"/>
-      <c r="AK18" s="180"/>
-      <c r="AL18" s="180"/>
-      <c r="AM18" s="180"/>
-      <c r="AN18" s="180"/>
-      <c r="AO18" s="180"/>
-      <c r="AP18" s="180"/>
-      <c r="AQ18" s="180"/>
-      <c r="AR18" s="180"/>
-      <c r="AS18" s="180"/>
-      <c r="AT18" s="180"/>
-      <c r="AU18" s="180"/>
-      <c r="AV18" s="180"/>
-      <c r="AW18" s="180"/>
-      <c r="AX18" s="180"/>
-      <c r="AY18" s="204" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ18" s="205"/>
-      <c r="BA18" s="205"/>
-      <c r="BB18" s="205"/>
-      <c r="BC18" s="205"/>
-      <c r="BD18" s="205"/>
-      <c r="BE18" s="205"/>
-      <c r="BF18" s="205"/>
-      <c r="BG18" s="205"/>
-      <c r="BH18" s="205"/>
-      <c r="BI18" s="206"/>
+      <c r="AZ18" s="213"/>
+      <c r="BA18" s="213"/>
+      <c r="BB18" s="213"/>
+      <c r="BC18" s="213"/>
+      <c r="BD18" s="213"/>
+      <c r="BE18" s="213"/>
+      <c r="BF18" s="213"/>
+      <c r="BG18" s="213"/>
+      <c r="BH18" s="213"/>
+      <c r="BI18" s="214"/>
       <c r="BJ18" s="120"/>
       <c r="BK18" s="116"/>
       <c r="BL18" s="112"/>
@@ -9851,79 +9705,79 @@
       <c r="B19" s="128">
         <v>2</v>
       </c>
-      <c r="C19" s="153" t="s">
-        <v>87</v>
+      <c r="C19" s="146" t="s">
+        <v>85</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="155" t="s">
-        <v>134</v>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="156" t="s">
+        <v>129</v>
       </c>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="155" t="s">
-        <v>60</v>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="156" t="s">
+        <v>135</v>
       </c>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="202" t="s">
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="193" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="AB19" s="203"/>
-      <c r="AC19" s="202" t="s">
-        <v>28</v>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="209" t="s">
+        <v>132</v>
       </c>
-      <c r="AD19" s="203"/>
-      <c r="AE19" s="199" t="s">
-        <v>135</v>
+      <c r="AF19" s="154"/>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="154"/>
+      <c r="AI19" s="154"/>
+      <c r="AJ19" s="154"/>
+      <c r="AK19" s="154"/>
+      <c r="AL19" s="154"/>
+      <c r="AM19" s="154"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="154"/>
+      <c r="AP19" s="154"/>
+      <c r="AQ19" s="154"/>
+      <c r="AR19" s="154"/>
+      <c r="AS19" s="154"/>
+      <c r="AT19" s="154"/>
+      <c r="AU19" s="154"/>
+      <c r="AV19" s="154"/>
+      <c r="AW19" s="154"/>
+      <c r="AX19" s="154"/>
+      <c r="AY19" s="195" t="s">
+        <v>107</v>
       </c>
-      <c r="AF19" s="192"/>
-      <c r="AG19" s="192"/>
-      <c r="AH19" s="192"/>
-      <c r="AI19" s="192"/>
-      <c r="AJ19" s="192"/>
-      <c r="AK19" s="192"/>
-      <c r="AL19" s="192"/>
-      <c r="AM19" s="192"/>
-      <c r="AN19" s="192"/>
-      <c r="AO19" s="192"/>
-      <c r="AP19" s="192"/>
-      <c r="AQ19" s="192"/>
-      <c r="AR19" s="192"/>
-      <c r="AS19" s="192"/>
-      <c r="AT19" s="192"/>
-      <c r="AU19" s="192"/>
-      <c r="AV19" s="192"/>
-      <c r="AW19" s="192"/>
-      <c r="AX19" s="192"/>
-      <c r="AY19" s="200" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ19" s="200"/>
-      <c r="BA19" s="200"/>
-      <c r="BB19" s="200"/>
-      <c r="BC19" s="200"/>
-      <c r="BD19" s="200"/>
-      <c r="BE19" s="200"/>
-      <c r="BF19" s="200"/>
-      <c r="BG19" s="200"/>
-      <c r="BH19" s="200"/>
-      <c r="BI19" s="200"/>
+      <c r="AZ19" s="195"/>
+      <c r="BA19" s="195"/>
+      <c r="BB19" s="195"/>
+      <c r="BC19" s="195"/>
+      <c r="BD19" s="195"/>
+      <c r="BE19" s="195"/>
+      <c r="BF19" s="195"/>
+      <c r="BG19" s="195"/>
+      <c r="BH19" s="195"/>
+      <c r="BI19" s="195"/>
       <c r="BJ19" s="120"/>
       <c r="BK19" s="116"/>
       <c r="BL19" s="112"/>
@@ -10130,79 +9984,79 @@
       <c r="B20" s="128">
         <v>3</v>
       </c>
-      <c r="C20" s="182" t="s">
-        <v>88</v>
+      <c r="C20" s="172" t="s">
+        <v>86</v>
       </c>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="185" t="s">
-        <v>132</v>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="160" t="s">
+        <v>127</v>
       </c>
-      <c r="L20" s="185"/>
-      <c r="M20" s="185"/>
-      <c r="N20" s="185"/>
-      <c r="O20" s="185"/>
-      <c r="P20" s="185"/>
-      <c r="Q20" s="185"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="185" t="s">
-        <v>94</v>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="160" t="s">
+        <v>92</v>
       </c>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="186"/>
-      <c r="AA20" s="195" t="s">
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="195" t="s">
+      <c r="AB20" s="197"/>
+      <c r="AC20" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="AD20" s="196"/>
-      <c r="AE20" s="197" t="s">
-        <v>131</v>
+      <c r="AD20" s="197"/>
+      <c r="AE20" s="211" t="s">
+        <v>126</v>
       </c>
-      <c r="AF20" s="180"/>
-      <c r="AG20" s="180"/>
-      <c r="AH20" s="180"/>
-      <c r="AI20" s="180"/>
-      <c r="AJ20" s="180"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="180"/>
-      <c r="AM20" s="180"/>
-      <c r="AN20" s="180"/>
-      <c r="AO20" s="180"/>
-      <c r="AP20" s="180"/>
-      <c r="AQ20" s="180"/>
-      <c r="AR20" s="180"/>
-      <c r="AS20" s="180"/>
-      <c r="AT20" s="180"/>
-      <c r="AU20" s="180"/>
-      <c r="AV20" s="180"/>
-      <c r="AW20" s="180"/>
-      <c r="AX20" s="180"/>
-      <c r="AY20" s="198" t="s">
-        <v>111</v>
+      <c r="AF20" s="170"/>
+      <c r="AG20" s="170"/>
+      <c r="AH20" s="170"/>
+      <c r="AI20" s="170"/>
+      <c r="AJ20" s="170"/>
+      <c r="AK20" s="170"/>
+      <c r="AL20" s="170"/>
+      <c r="AM20" s="170"/>
+      <c r="AN20" s="170"/>
+      <c r="AO20" s="170"/>
+      <c r="AP20" s="170"/>
+      <c r="AQ20" s="170"/>
+      <c r="AR20" s="170"/>
+      <c r="AS20" s="170"/>
+      <c r="AT20" s="170"/>
+      <c r="AU20" s="170"/>
+      <c r="AV20" s="170"/>
+      <c r="AW20" s="170"/>
+      <c r="AX20" s="170"/>
+      <c r="AY20" s="216" t="s">
+        <v>108</v>
       </c>
-      <c r="AZ20" s="198"/>
-      <c r="BA20" s="198"/>
-      <c r="BB20" s="198"/>
-      <c r="BC20" s="198"/>
-      <c r="BD20" s="198"/>
-      <c r="BE20" s="198"/>
-      <c r="BF20" s="198"/>
-      <c r="BG20" s="198"/>
-      <c r="BH20" s="198"/>
-      <c r="BI20" s="198"/>
+      <c r="AZ20" s="216"/>
+      <c r="BA20" s="216"/>
+      <c r="BB20" s="216"/>
+      <c r="BC20" s="216"/>
+      <c r="BD20" s="216"/>
+      <c r="BE20" s="216"/>
+      <c r="BF20" s="216"/>
+      <c r="BG20" s="216"/>
+      <c r="BH20" s="216"/>
+      <c r="BI20" s="216"/>
       <c r="BJ20" s="120"/>
       <c r="BK20" s="116"/>
       <c r="BL20" s="112"/>
@@ -10409,79 +10263,79 @@
       <c r="B21" s="128">
         <v>5</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="155" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="155" t="s">
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="202" t="s">
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="156" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="157"/>
+      <c r="AA21" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="AB21" s="203"/>
-      <c r="AC21" s="202" t="s">
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="AD21" s="203"/>
-      <c r="AE21" s="199" t="s">
-        <v>65</v>
+      <c r="AD21" s="194"/>
+      <c r="AE21" s="209" t="s">
+        <v>64</v>
       </c>
-      <c r="AF21" s="192"/>
-      <c r="AG21" s="192"/>
-      <c r="AH21" s="192"/>
-      <c r="AI21" s="192"/>
-      <c r="AJ21" s="192"/>
-      <c r="AK21" s="192"/>
-      <c r="AL21" s="192"/>
-      <c r="AM21" s="192"/>
-      <c r="AN21" s="192"/>
-      <c r="AO21" s="192"/>
-      <c r="AP21" s="192"/>
-      <c r="AQ21" s="192"/>
-      <c r="AR21" s="192"/>
-      <c r="AS21" s="192"/>
-      <c r="AT21" s="192"/>
-      <c r="AU21" s="192"/>
-      <c r="AV21" s="192"/>
-      <c r="AW21" s="192"/>
-      <c r="AX21" s="192"/>
-      <c r="AY21" s="200" t="s">
-        <v>101</v>
+      <c r="AF21" s="154"/>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="154"/>
+      <c r="AI21" s="154"/>
+      <c r="AJ21" s="154"/>
+      <c r="AK21" s="154"/>
+      <c r="AL21" s="154"/>
+      <c r="AM21" s="154"/>
+      <c r="AN21" s="154"/>
+      <c r="AO21" s="154"/>
+      <c r="AP21" s="154"/>
+      <c r="AQ21" s="154"/>
+      <c r="AR21" s="154"/>
+      <c r="AS21" s="154"/>
+      <c r="AT21" s="154"/>
+      <c r="AU21" s="154"/>
+      <c r="AV21" s="154"/>
+      <c r="AW21" s="154"/>
+      <c r="AX21" s="154"/>
+      <c r="AY21" s="195" t="s">
+        <v>98</v>
       </c>
-      <c r="AZ21" s="200"/>
-      <c r="BA21" s="200"/>
-      <c r="BB21" s="200"/>
-      <c r="BC21" s="200"/>
-      <c r="BD21" s="200"/>
-      <c r="BE21" s="200"/>
-      <c r="BF21" s="200"/>
-      <c r="BG21" s="200"/>
-      <c r="BH21" s="200"/>
-      <c r="BI21" s="200"/>
+      <c r="AZ21" s="195"/>
+      <c r="BA21" s="195"/>
+      <c r="BB21" s="195"/>
+      <c r="BC21" s="195"/>
+      <c r="BD21" s="195"/>
+      <c r="BE21" s="195"/>
+      <c r="BF21" s="195"/>
+      <c r="BG21" s="195"/>
+      <c r="BH21" s="195"/>
+      <c r="BI21" s="195"/>
       <c r="BJ21" s="120"/>
       <c r="BK21" s="116"/>
       <c r="BL21" s="112"/>
@@ -10688,79 +10542,79 @@
       <c r="B22" s="128">
         <v>6</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="155" t="s">
-        <v>64</v>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="156" t="s">
+        <v>63</v>
       </c>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="155" t="s">
-        <v>133</v>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="156" t="s">
+        <v>128</v>
       </c>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="202" t="s">
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="AB22" s="203"/>
-      <c r="AC22" s="202" t="s">
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="AD22" s="203"/>
-      <c r="AE22" s="199" t="s">
-        <v>66</v>
+      <c r="AD22" s="194"/>
+      <c r="AE22" s="209" t="s">
+        <v>65</v>
       </c>
-      <c r="AF22" s="192"/>
-      <c r="AG22" s="192"/>
-      <c r="AH22" s="192"/>
-      <c r="AI22" s="192"/>
-      <c r="AJ22" s="192"/>
-      <c r="AK22" s="192"/>
-      <c r="AL22" s="192"/>
-      <c r="AM22" s="192"/>
-      <c r="AN22" s="192"/>
-      <c r="AO22" s="192"/>
-      <c r="AP22" s="192"/>
-      <c r="AQ22" s="192"/>
-      <c r="AR22" s="192"/>
-      <c r="AS22" s="192"/>
-      <c r="AT22" s="192"/>
-      <c r="AU22" s="192"/>
-      <c r="AV22" s="192"/>
-      <c r="AW22" s="192"/>
-      <c r="AX22" s="192"/>
-      <c r="AY22" s="200" t="s">
-        <v>101</v>
+      <c r="AF22" s="154"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="154"/>
+      <c r="AI22" s="154"/>
+      <c r="AJ22" s="154"/>
+      <c r="AK22" s="154"/>
+      <c r="AL22" s="154"/>
+      <c r="AM22" s="154"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
+      <c r="AQ22" s="154"/>
+      <c r="AR22" s="154"/>
+      <c r="AS22" s="154"/>
+      <c r="AT22" s="154"/>
+      <c r="AU22" s="154"/>
+      <c r="AV22" s="154"/>
+      <c r="AW22" s="154"/>
+      <c r="AX22" s="154"/>
+      <c r="AY22" s="195" t="s">
+        <v>98</v>
       </c>
-      <c r="AZ22" s="200"/>
-      <c r="BA22" s="200"/>
-      <c r="BB22" s="200"/>
-      <c r="BC22" s="200"/>
-      <c r="BD22" s="200"/>
-      <c r="BE22" s="200"/>
-      <c r="BF22" s="200"/>
-      <c r="BG22" s="200"/>
-      <c r="BH22" s="200"/>
-      <c r="BI22" s="200"/>
+      <c r="AZ22" s="195"/>
+      <c r="BA22" s="195"/>
+      <c r="BB22" s="195"/>
+      <c r="BC22" s="195"/>
+      <c r="BD22" s="195"/>
+      <c r="BE22" s="195"/>
+      <c r="BF22" s="195"/>
+      <c r="BG22" s="195"/>
+      <c r="BH22" s="195"/>
+      <c r="BI22" s="195"/>
       <c r="BJ22" s="120"/>
       <c r="BK22" s="116"/>
       <c r="BL22" s="112"/>
@@ -10967,79 +10821,79 @@
       <c r="B23" s="128">
         <v>7</v>
       </c>
-      <c r="C23" s="153" t="s">
+      <c r="C23" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155" t="s">
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="157"/>
+      <c r="AA23" s="193" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="193" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD23" s="194"/>
+      <c r="AE23" s="209" t="s">
         <v>97</v>
       </c>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="155" t="s">
-        <v>98</v>
+      <c r="AF23" s="154"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="154"/>
+      <c r="AI23" s="154"/>
+      <c r="AJ23" s="154"/>
+      <c r="AK23" s="154"/>
+      <c r="AL23" s="154"/>
+      <c r="AM23" s="154"/>
+      <c r="AN23" s="154"/>
+      <c r="AO23" s="154"/>
+      <c r="AP23" s="154"/>
+      <c r="AQ23" s="154"/>
+      <c r="AR23" s="154"/>
+      <c r="AS23" s="154"/>
+      <c r="AT23" s="154"/>
+      <c r="AU23" s="154"/>
+      <c r="AV23" s="154"/>
+      <c r="AW23" s="154"/>
+      <c r="AX23" s="154"/>
+      <c r="AY23" s="195" t="s">
+        <v>119</v>
       </c>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="202" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB23" s="203"/>
-      <c r="AC23" s="202" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD23" s="203"/>
-      <c r="AE23" s="199" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF23" s="192"/>
-      <c r="AG23" s="192"/>
-      <c r="AH23" s="192"/>
-      <c r="AI23" s="192"/>
-      <c r="AJ23" s="192"/>
-      <c r="AK23" s="192"/>
-      <c r="AL23" s="192"/>
-      <c r="AM23" s="192"/>
-      <c r="AN23" s="192"/>
-      <c r="AO23" s="192"/>
-      <c r="AP23" s="192"/>
-      <c r="AQ23" s="192"/>
-      <c r="AR23" s="192"/>
-      <c r="AS23" s="192"/>
-      <c r="AT23" s="192"/>
-      <c r="AU23" s="192"/>
-      <c r="AV23" s="192"/>
-      <c r="AW23" s="192"/>
-      <c r="AX23" s="192"/>
-      <c r="AY23" s="200" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ23" s="200"/>
-      <c r="BA23" s="200"/>
-      <c r="BB23" s="200"/>
-      <c r="BC23" s="200"/>
-      <c r="BD23" s="200"/>
-      <c r="BE23" s="200"/>
-      <c r="BF23" s="200"/>
-      <c r="BG23" s="200"/>
-      <c r="BH23" s="200"/>
-      <c r="BI23" s="200"/>
+      <c r="AZ23" s="195"/>
+      <c r="BA23" s="195"/>
+      <c r="BB23" s="195"/>
+      <c r="BC23" s="195"/>
+      <c r="BD23" s="195"/>
+      <c r="BE23" s="195"/>
+      <c r="BF23" s="195"/>
+      <c r="BG23" s="195"/>
+      <c r="BH23" s="195"/>
+      <c r="BI23" s="195"/>
       <c r="BJ23" s="120"/>
       <c r="BK23" s="116"/>
       <c r="BL23" s="112"/>
@@ -11774,73 +11628,73 @@
       <c r="B26" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="164" t="s">
+      <c r="C26" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164" t="s">
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
-      <c r="X26" s="164"/>
-      <c r="Y26" s="164"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="164" t="s">
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="159"/>
+      <c r="Y26" s="159"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="164"/>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="164"/>
-      <c r="AF26" s="164"/>
-      <c r="AG26" s="164"/>
-      <c r="AH26" s="164"/>
-      <c r="AI26" s="164"/>
-      <c r="AJ26" s="164"/>
-      <c r="AK26" s="164"/>
-      <c r="AL26" s="164"/>
-      <c r="AM26" s="164"/>
-      <c r="AN26" s="164"/>
-      <c r="AO26" s="164"/>
-      <c r="AP26" s="164"/>
-      <c r="AQ26" s="164"/>
-      <c r="AR26" s="164"/>
-      <c r="AS26" s="164"/>
-      <c r="AT26" s="164"/>
-      <c r="AU26" s="164"/>
-      <c r="AV26" s="164"/>
-      <c r="AW26" s="164"/>
-      <c r="AX26" s="164"/>
-      <c r="AY26" s="164"/>
-      <c r="AZ26" s="164"/>
-      <c r="BA26" s="164"/>
-      <c r="BB26" s="164"/>
-      <c r="BC26" s="164"/>
-      <c r="BD26" s="164"/>
-      <c r="BE26" s="164"/>
-      <c r="BF26" s="164"/>
-      <c r="BG26" s="164"/>
-      <c r="BH26" s="164"/>
-      <c r="BI26" s="164"/>
+      <c r="AB26" s="159"/>
+      <c r="AC26" s="159"/>
+      <c r="AD26" s="159"/>
+      <c r="AE26" s="159"/>
+      <c r="AF26" s="159"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="159"/>
+      <c r="AJ26" s="159"/>
+      <c r="AK26" s="159"/>
+      <c r="AL26" s="159"/>
+      <c r="AM26" s="159"/>
+      <c r="AN26" s="159"/>
+      <c r="AO26" s="159"/>
+      <c r="AP26" s="159"/>
+      <c r="AQ26" s="159"/>
+      <c r="AR26" s="159"/>
+      <c r="AS26" s="159"/>
+      <c r="AT26" s="159"/>
+      <c r="AU26" s="159"/>
+      <c r="AV26" s="159"/>
+      <c r="AW26" s="159"/>
+      <c r="AX26" s="159"/>
+      <c r="AY26" s="159"/>
+      <c r="AZ26" s="159"/>
+      <c r="BA26" s="159"/>
+      <c r="BB26" s="159"/>
+      <c r="BC26" s="159"/>
+      <c r="BD26" s="159"/>
+      <c r="BE26" s="159"/>
+      <c r="BF26" s="159"/>
+      <c r="BG26" s="159"/>
+      <c r="BH26" s="159"/>
+      <c r="BI26" s="159"/>
       <c r="BJ26" s="20"/>
       <c r="BK26" s="36"/>
       <c r="BL26" s="3"/>
@@ -12047,73 +11901,73 @@
       <c r="B27" s="30">
         <v>1</v>
       </c>
-      <c r="C27" s="191" t="s">
+      <c r="C27" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191" t="s">
-        <v>77</v>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151" t="s">
+        <v>75</v>
       </c>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="191"/>
-      <c r="O27" s="191"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="191"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="191" t="s">
-        <v>61</v>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151" t="s">
+        <v>60</v>
       </c>
-      <c r="T27" s="191"/>
-      <c r="U27" s="191"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="201" t="s">
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="201"/>
-      <c r="AC27" s="201"/>
-      <c r="AD27" s="201"/>
-      <c r="AE27" s="201"/>
-      <c r="AF27" s="201"/>
-      <c r="AG27" s="201"/>
-      <c r="AH27" s="201"/>
-      <c r="AI27" s="201"/>
-      <c r="AJ27" s="201"/>
-      <c r="AK27" s="201"/>
-      <c r="AL27" s="201"/>
-      <c r="AM27" s="201"/>
-      <c r="AN27" s="201"/>
-      <c r="AO27" s="201"/>
-      <c r="AP27" s="201"/>
-      <c r="AQ27" s="201"/>
-      <c r="AR27" s="201"/>
-      <c r="AS27" s="201"/>
-      <c r="AT27" s="201"/>
-      <c r="AU27" s="201"/>
-      <c r="AV27" s="201"/>
-      <c r="AW27" s="201"/>
-      <c r="AX27" s="201"/>
-      <c r="AY27" s="201"/>
-      <c r="AZ27" s="201"/>
-      <c r="BA27" s="201"/>
-      <c r="BB27" s="201"/>
-      <c r="BC27" s="201"/>
-      <c r="BD27" s="201"/>
-      <c r="BE27" s="201"/>
-      <c r="BF27" s="201"/>
-      <c r="BG27" s="201"/>
-      <c r="BH27" s="201"/>
-      <c r="BI27" s="201"/>
+      <c r="AB27" s="207"/>
+      <c r="AC27" s="207"/>
+      <c r="AD27" s="207"/>
+      <c r="AE27" s="207"/>
+      <c r="AF27" s="207"/>
+      <c r="AG27" s="207"/>
+      <c r="AH27" s="207"/>
+      <c r="AI27" s="207"/>
+      <c r="AJ27" s="207"/>
+      <c r="AK27" s="207"/>
+      <c r="AL27" s="207"/>
+      <c r="AM27" s="207"/>
+      <c r="AN27" s="207"/>
+      <c r="AO27" s="207"/>
+      <c r="AP27" s="207"/>
+      <c r="AQ27" s="207"/>
+      <c r="AR27" s="207"/>
+      <c r="AS27" s="207"/>
+      <c r="AT27" s="207"/>
+      <c r="AU27" s="207"/>
+      <c r="AV27" s="207"/>
+      <c r="AW27" s="207"/>
+      <c r="AX27" s="207"/>
+      <c r="AY27" s="207"/>
+      <c r="AZ27" s="207"/>
+      <c r="BA27" s="207"/>
+      <c r="BB27" s="207"/>
+      <c r="BC27" s="207"/>
+      <c r="BD27" s="207"/>
+      <c r="BE27" s="207"/>
+      <c r="BF27" s="207"/>
+      <c r="BG27" s="207"/>
+      <c r="BH27" s="207"/>
+      <c r="BI27" s="207"/>
       <c r="BJ27" s="20"/>
       <c r="BK27" s="36"/>
       <c r="BL27" s="3"/>
@@ -12320,73 +12174,73 @@
       <c r="B28" s="114">
         <v>2</v>
       </c>
-      <c r="C28" s="146" t="s">
-        <v>109</v>
+      <c r="C28" s="180" t="s">
+        <v>106</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="146" t="s">
-        <v>118</v>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="180" t="s">
+        <v>115</v>
       </c>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="146" t="s">
-        <v>104</v>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="180" t="s">
+        <v>101</v>
       </c>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="150" t="s">
-        <v>105</v>
+      <c r="T28" s="181"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
+      <c r="X28" s="181"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="182"/>
+      <c r="AA28" s="184" t="s">
+        <v>102</v>
       </c>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
-      <c r="AE28" s="151"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="151"/>
-      <c r="AJ28" s="151"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="151"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="151"/>
-      <c r="AP28" s="151"/>
-      <c r="AQ28" s="151"/>
-      <c r="AR28" s="151"/>
-      <c r="AS28" s="151"/>
-      <c r="AT28" s="151"/>
-      <c r="AU28" s="151"/>
-      <c r="AV28" s="151"/>
-      <c r="AW28" s="151"/>
-      <c r="AX28" s="151"/>
-      <c r="AY28" s="151"/>
-      <c r="AZ28" s="151"/>
-      <c r="BA28" s="151"/>
-      <c r="BB28" s="151"/>
-      <c r="BC28" s="151"/>
-      <c r="BD28" s="151"/>
-      <c r="BE28" s="151"/>
-      <c r="BF28" s="151"/>
-      <c r="BG28" s="151"/>
-      <c r="BH28" s="151"/>
-      <c r="BI28" s="194"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="185"/>
+      <c r="AD28" s="185"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="185"/>
+      <c r="AG28" s="185"/>
+      <c r="AH28" s="185"/>
+      <c r="AI28" s="185"/>
+      <c r="AJ28" s="185"/>
+      <c r="AK28" s="185"/>
+      <c r="AL28" s="185"/>
+      <c r="AM28" s="185"/>
+      <c r="AN28" s="185"/>
+      <c r="AO28" s="185"/>
+      <c r="AP28" s="185"/>
+      <c r="AQ28" s="185"/>
+      <c r="AR28" s="185"/>
+      <c r="AS28" s="185"/>
+      <c r="AT28" s="185"/>
+      <c r="AU28" s="185"/>
+      <c r="AV28" s="185"/>
+      <c r="AW28" s="185"/>
+      <c r="AX28" s="185"/>
+      <c r="AY28" s="185"/>
+      <c r="AZ28" s="185"/>
+      <c r="BA28" s="185"/>
+      <c r="BB28" s="185"/>
+      <c r="BC28" s="185"/>
+      <c r="BD28" s="185"/>
+      <c r="BE28" s="185"/>
+      <c r="BF28" s="185"/>
+      <c r="BG28" s="185"/>
+      <c r="BH28" s="185"/>
+      <c r="BI28" s="210"/>
       <c r="BJ28" s="120"/>
       <c r="BK28" s="116"/>
       <c r="BL28" s="112"/>
@@ -12593,73 +12447,73 @@
       <c r="B29" s="30">
         <v>3</v>
       </c>
-      <c r="C29" s="146" t="s">
-        <v>106</v>
+      <c r="C29" s="180" t="s">
+        <v>103</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="146" t="s">
-        <v>119</v>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="180" t="s">
+        <v>116</v>
       </c>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="146" t="s">
-        <v>107</v>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="180" t="s">
+        <v>104</v>
       </c>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="150" t="s">
-        <v>108</v>
+      <c r="T29" s="181"/>
+      <c r="U29" s="181"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
+      <c r="X29" s="181"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="182"/>
+      <c r="AA29" s="184" t="s">
+        <v>105</v>
       </c>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
-      <c r="AE29" s="151"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="151"/>
-      <c r="AJ29" s="151"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="151"/>
-      <c r="AM29" s="151"/>
-      <c r="AN29" s="151"/>
-      <c r="AO29" s="151"/>
-      <c r="AP29" s="151"/>
-      <c r="AQ29" s="151"/>
-      <c r="AR29" s="151"/>
-      <c r="AS29" s="151"/>
-      <c r="AT29" s="151"/>
-      <c r="AU29" s="151"/>
-      <c r="AV29" s="151"/>
-      <c r="AW29" s="151"/>
-      <c r="AX29" s="151"/>
-      <c r="AY29" s="151"/>
-      <c r="AZ29" s="151"/>
-      <c r="BA29" s="151"/>
-      <c r="BB29" s="151"/>
-      <c r="BC29" s="151"/>
-      <c r="BD29" s="151"/>
-      <c r="BE29" s="151"/>
-      <c r="BF29" s="151"/>
-      <c r="BG29" s="151"/>
-      <c r="BH29" s="151"/>
-      <c r="BI29" s="194"/>
+      <c r="AB29" s="185"/>
+      <c r="AC29" s="185"/>
+      <c r="AD29" s="185"/>
+      <c r="AE29" s="185"/>
+      <c r="AF29" s="185"/>
+      <c r="AG29" s="185"/>
+      <c r="AH29" s="185"/>
+      <c r="AI29" s="185"/>
+      <c r="AJ29" s="185"/>
+      <c r="AK29" s="185"/>
+      <c r="AL29" s="185"/>
+      <c r="AM29" s="185"/>
+      <c r="AN29" s="185"/>
+      <c r="AO29" s="185"/>
+      <c r="AP29" s="185"/>
+      <c r="AQ29" s="185"/>
+      <c r="AR29" s="185"/>
+      <c r="AS29" s="185"/>
+      <c r="AT29" s="185"/>
+      <c r="AU29" s="185"/>
+      <c r="AV29" s="185"/>
+      <c r="AW29" s="185"/>
+      <c r="AX29" s="185"/>
+      <c r="AY29" s="185"/>
+      <c r="AZ29" s="185"/>
+      <c r="BA29" s="185"/>
+      <c r="BB29" s="185"/>
+      <c r="BC29" s="185"/>
+      <c r="BD29" s="185"/>
+      <c r="BE29" s="185"/>
+      <c r="BF29" s="185"/>
+      <c r="BG29" s="185"/>
+      <c r="BH29" s="185"/>
+      <c r="BI29" s="210"/>
       <c r="BJ29" s="20"/>
       <c r="BK29" s="36"/>
       <c r="BL29" s="3"/>
@@ -13389,69 +13243,69 @@
     </row>
     <row r="32" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
-      <c r="B32" s="207" t="s">
+      <c r="B32" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="208"/>
-      <c r="D32" s="208"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="208"/>
-      <c r="K32" s="208"/>
-      <c r="L32" s="208"/>
-      <c r="M32" s="208"/>
-      <c r="N32" s="208"/>
-      <c r="O32" s="208"/>
-      <c r="P32" s="208"/>
-      <c r="Q32" s="208"/>
-      <c r="R32" s="208"/>
-      <c r="S32" s="208"/>
-      <c r="T32" s="208"/>
-      <c r="U32" s="208"/>
-      <c r="V32" s="208"/>
-      <c r="W32" s="208"/>
-      <c r="X32" s="208"/>
-      <c r="Y32" s="208"/>
-      <c r="Z32" s="208"/>
-      <c r="AA32" s="208"/>
-      <c r="AB32" s="208"/>
-      <c r="AC32" s="208"/>
-      <c r="AD32" s="208"/>
-      <c r="AE32" s="208"/>
-      <c r="AF32" s="208"/>
-      <c r="AG32" s="208"/>
-      <c r="AH32" s="208"/>
-      <c r="AI32" s="208"/>
-      <c r="AJ32" s="208"/>
-      <c r="AK32" s="208"/>
-      <c r="AL32" s="208"/>
-      <c r="AM32" s="208"/>
-      <c r="AN32" s="208"/>
-      <c r="AO32" s="208"/>
-      <c r="AP32" s="208"/>
-      <c r="AQ32" s="208"/>
-      <c r="AR32" s="208"/>
-      <c r="AS32" s="208"/>
-      <c r="AT32" s="208"/>
-      <c r="AU32" s="208"/>
-      <c r="AV32" s="208"/>
-      <c r="AW32" s="208"/>
-      <c r="AX32" s="208"/>
-      <c r="AY32" s="208"/>
-      <c r="AZ32" s="208"/>
-      <c r="BA32" s="208"/>
-      <c r="BB32" s="208"/>
-      <c r="BC32" s="208"/>
-      <c r="BD32" s="208"/>
-      <c r="BE32" s="208"/>
-      <c r="BF32" s="208"/>
-      <c r="BG32" s="208"/>
-      <c r="BH32" s="208"/>
-      <c r="BI32" s="208"/>
-      <c r="BJ32" s="209"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="205"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="205"/>
+      <c r="O32" s="205"/>
+      <c r="P32" s="205"/>
+      <c r="Q32" s="205"/>
+      <c r="R32" s="205"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="205"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="205"/>
+      <c r="W32" s="205"/>
+      <c r="X32" s="205"/>
+      <c r="Y32" s="205"/>
+      <c r="Z32" s="205"/>
+      <c r="AA32" s="205"/>
+      <c r="AB32" s="205"/>
+      <c r="AC32" s="205"/>
+      <c r="AD32" s="205"/>
+      <c r="AE32" s="205"/>
+      <c r="AF32" s="205"/>
+      <c r="AG32" s="205"/>
+      <c r="AH32" s="205"/>
+      <c r="AI32" s="205"/>
+      <c r="AJ32" s="205"/>
+      <c r="AK32" s="205"/>
+      <c r="AL32" s="205"/>
+      <c r="AM32" s="205"/>
+      <c r="AN32" s="205"/>
+      <c r="AO32" s="205"/>
+      <c r="AP32" s="205"/>
+      <c r="AQ32" s="205"/>
+      <c r="AR32" s="205"/>
+      <c r="AS32" s="205"/>
+      <c r="AT32" s="205"/>
+      <c r="AU32" s="205"/>
+      <c r="AV32" s="205"/>
+      <c r="AW32" s="205"/>
+      <c r="AX32" s="205"/>
+      <c r="AY32" s="205"/>
+      <c r="AZ32" s="205"/>
+      <c r="BA32" s="205"/>
+      <c r="BB32" s="205"/>
+      <c r="BC32" s="205"/>
+      <c r="BD32" s="205"/>
+      <c r="BE32" s="205"/>
+      <c r="BF32" s="205"/>
+      <c r="BG32" s="205"/>
+      <c r="BH32" s="205"/>
+      <c r="BI32" s="205"/>
+      <c r="BJ32" s="206"/>
       <c r="BK32" s="40"/>
       <c r="BL32" s="1"/>
       <c r="BM32" s="1"/>
@@ -13654,7 +13508,7 @@
     <row r="33" spans="1:260" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="123" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="124"/>
       <c r="D33" s="124"/>
@@ -14180,7 +14034,7 @@
     <row r="35" spans="1:260" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="121" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C35" s="119"/>
       <c r="D35" s="119"/>
@@ -14706,7 +14560,7 @@
     <row r="37" spans="1:260" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="122"/>
       <c r="B37" s="125" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C37" s="119"/>
       <c r="D37" s="119"/>
@@ -15232,7 +15086,7 @@
     <row r="39" spans="1:260" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="122"/>
       <c r="B39" s="125" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C39" s="119"/>
       <c r="D39" s="119"/>
@@ -15748,7 +15602,7 @@
     <row r="41" spans="1:260" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -16797,69 +16651,69 @@
     </row>
     <row r="45" spans="1:260" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
-      <c r="B45" s="207" t="s">
-        <v>89</v>
+      <c r="B45" s="204" t="s">
+        <v>87</v>
       </c>
-      <c r="C45" s="208"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="208"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="208"/>
-      <c r="H45" s="208"/>
-      <c r="I45" s="208"/>
-      <c r="J45" s="208"/>
-      <c r="K45" s="208"/>
-      <c r="L45" s="208"/>
-      <c r="M45" s="208"/>
-      <c r="N45" s="208"/>
-      <c r="O45" s="208"/>
-      <c r="P45" s="208"/>
-      <c r="Q45" s="208"/>
-      <c r="R45" s="208"/>
-      <c r="S45" s="208"/>
-      <c r="T45" s="208"/>
-      <c r="U45" s="208"/>
-      <c r="V45" s="208"/>
-      <c r="W45" s="208"/>
-      <c r="X45" s="208"/>
-      <c r="Y45" s="208"/>
-      <c r="Z45" s="208"/>
-      <c r="AA45" s="208"/>
-      <c r="AB45" s="208"/>
-      <c r="AC45" s="208"/>
-      <c r="AD45" s="208"/>
-      <c r="AE45" s="208"/>
-      <c r="AF45" s="208"/>
-      <c r="AG45" s="208"/>
-      <c r="AH45" s="208"/>
-      <c r="AI45" s="208"/>
-      <c r="AJ45" s="208"/>
-      <c r="AK45" s="208"/>
-      <c r="AL45" s="208"/>
-      <c r="AM45" s="208"/>
-      <c r="AN45" s="208"/>
-      <c r="AO45" s="208"/>
-      <c r="AP45" s="208"/>
-      <c r="AQ45" s="208"/>
-      <c r="AR45" s="208"/>
-      <c r="AS45" s="208"/>
-      <c r="AT45" s="208"/>
-      <c r="AU45" s="208"/>
-      <c r="AV45" s="208"/>
-      <c r="AW45" s="208"/>
-      <c r="AX45" s="208"/>
-      <c r="AY45" s="208"/>
-      <c r="AZ45" s="208"/>
-      <c r="BA45" s="208"/>
-      <c r="BB45" s="208"/>
-      <c r="BC45" s="208"/>
-      <c r="BD45" s="208"/>
-      <c r="BE45" s="208"/>
-      <c r="BF45" s="208"/>
-      <c r="BG45" s="208"/>
-      <c r="BH45" s="208"/>
-      <c r="BI45" s="208"/>
-      <c r="BJ45" s="209"/>
+      <c r="C45" s="205"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="205"/>
+      <c r="J45" s="205"/>
+      <c r="K45" s="205"/>
+      <c r="L45" s="205"/>
+      <c r="M45" s="205"/>
+      <c r="N45" s="205"/>
+      <c r="O45" s="205"/>
+      <c r="P45" s="205"/>
+      <c r="Q45" s="205"/>
+      <c r="R45" s="205"/>
+      <c r="S45" s="205"/>
+      <c r="T45" s="205"/>
+      <c r="U45" s="205"/>
+      <c r="V45" s="205"/>
+      <c r="W45" s="205"/>
+      <c r="X45" s="205"/>
+      <c r="Y45" s="205"/>
+      <c r="Z45" s="205"/>
+      <c r="AA45" s="205"/>
+      <c r="AB45" s="205"/>
+      <c r="AC45" s="205"/>
+      <c r="AD45" s="205"/>
+      <c r="AE45" s="205"/>
+      <c r="AF45" s="205"/>
+      <c r="AG45" s="205"/>
+      <c r="AH45" s="205"/>
+      <c r="AI45" s="205"/>
+      <c r="AJ45" s="205"/>
+      <c r="AK45" s="205"/>
+      <c r="AL45" s="205"/>
+      <c r="AM45" s="205"/>
+      <c r="AN45" s="205"/>
+      <c r="AO45" s="205"/>
+      <c r="AP45" s="205"/>
+      <c r="AQ45" s="205"/>
+      <c r="AR45" s="205"/>
+      <c r="AS45" s="205"/>
+      <c r="AT45" s="205"/>
+      <c r="AU45" s="205"/>
+      <c r="AV45" s="205"/>
+      <c r="AW45" s="205"/>
+      <c r="AX45" s="205"/>
+      <c r="AY45" s="205"/>
+      <c r="AZ45" s="205"/>
+      <c r="BA45" s="205"/>
+      <c r="BB45" s="205"/>
+      <c r="BC45" s="205"/>
+      <c r="BD45" s="205"/>
+      <c r="BE45" s="205"/>
+      <c r="BF45" s="205"/>
+      <c r="BG45" s="205"/>
+      <c r="BH45" s="205"/>
+      <c r="BI45" s="205"/>
+      <c r="BJ45" s="206"/>
       <c r="BK45" s="23"/>
       <c r="BL45" s="1"/>
       <c r="BM45" s="1"/>
@@ -17062,7 +16916,7 @@
     <row r="46" spans="1:260" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="125" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C46" s="117"/>
       <c r="D46" s="130"/>
@@ -17327,7 +17181,7 @@
       <c r="A47" s="22"/>
       <c r="B47" s="125"/>
       <c r="C47" s="117" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D47" s="130"/>
       <c r="E47" s="130"/>
@@ -17591,7 +17445,7 @@
       <c r="A48" s="122"/>
       <c r="B48" s="125"/>
       <c r="C48" s="117" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D48" s="130"/>
       <c r="E48" s="130"/>
@@ -17842,7 +17696,7 @@
       <c r="A49" s="22"/>
       <c r="B49" s="125"/>
       <c r="C49" s="117" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" s="130"/>
       <c r="E49" s="130"/>
@@ -18106,7 +17960,7 @@
       <c r="A50" s="22"/>
       <c r="B50" s="125"/>
       <c r="C50" s="117" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D50" s="130"/>
       <c r="E50" s="130"/>
@@ -18631,7 +18485,7 @@
     <row r="52" spans="1:260" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="125" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C52" s="117"/>
       <c r="D52" s="130"/>
@@ -18895,7 +18749,7 @@
       <c r="A53" s="22"/>
       <c r="B53" s="125"/>
       <c r="C53" s="117" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D53" s="130"/>
       <c r="E53" s="130"/>
@@ -19159,7 +19013,7 @@
       <c r="A54" s="22"/>
       <c r="B54" s="125"/>
       <c r="C54" s="117" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D54" s="130"/>
       <c r="E54" s="130"/>
@@ -19423,7 +19277,7 @@
       <c r="A55" s="22"/>
       <c r="B55" s="125"/>
       <c r="C55" s="117" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D55" s="130"/>
       <c r="E55" s="130"/>
@@ -19687,7 +19541,7 @@
       <c r="A56" s="122"/>
       <c r="B56" s="125"/>
       <c r="C56" s="117" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D56" s="130"/>
       <c r="E56" s="130"/>
@@ -21249,42 +21103,54 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AY21:BI21"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BK4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BK5"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BF1:BK1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AA12:BI12"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA28:BI28"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AX20"/>
+    <mergeCell ref="AY20:BI20"/>
+    <mergeCell ref="AE19:AX19"/>
+    <mergeCell ref="AY19:BI19"/>
+    <mergeCell ref="AE23:AX23"/>
+    <mergeCell ref="AY23:BI23"/>
+    <mergeCell ref="AA27:BI27"/>
+    <mergeCell ref="AE22:AX22"/>
+    <mergeCell ref="AY22:BI22"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:Z29"/>
+    <mergeCell ref="AA29:BI29"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="S27:Z27"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:Z10"/>
+    <mergeCell ref="AA10:BI10"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="AA26:BI26"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="AY18:BI18"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
     <mergeCell ref="B45:BJ45"/>
     <mergeCell ref="K13:R13"/>
     <mergeCell ref="S13:Z13"/>
@@ -21309,54 +21175,42 @@
     <mergeCell ref="AA21:AB21"/>
     <mergeCell ref="AC21:AD21"/>
     <mergeCell ref="AE21:AX21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="S29:Z29"/>
-    <mergeCell ref="AA29:BI29"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="S27:Z27"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="S10:Z10"/>
-    <mergeCell ref="AA10:BI10"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="AA26:BI26"/>
-    <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="AY18:BI18"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:BI12"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA28:BI28"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AX20"/>
-    <mergeCell ref="AY20:BI20"/>
-    <mergeCell ref="AE19:AX19"/>
-    <mergeCell ref="AY19:BI19"/>
-    <mergeCell ref="AE23:AX23"/>
-    <mergeCell ref="AY23:BI23"/>
-    <mergeCell ref="AA27:BI27"/>
-    <mergeCell ref="AE22:AX22"/>
-    <mergeCell ref="AY22:BI22"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BK4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BK5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BF1:BK1"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AY21:BI21"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="1">
@@ -21375,8 +21229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F42C3B-B97C-4F01-9A4A-F99F237F2C81}">
   <dimension ref="A1:IY59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21386,87 +21240,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="172" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="171" t="str">
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="176" t="str">
         <f>クラス仕様!R1</f>
-        <v>商品購入</v>
+        <v>商品検索</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="172" t="s">
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="171" t="str">
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="176" t="str">
         <f>クラス仕様!AE1</f>
         <v>メイン画面遷移</v>
       </c>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="171"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="172" t="s">
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
+      <c r="AK1" s="176"/>
+      <c r="AL1" s="176"/>
+      <c r="AM1" s="176"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="176"/>
+      <c r="AP1" s="176"/>
+      <c r="AQ1" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="172"/>
-      <c r="AS1" s="172"/>
-      <c r="AT1" s="171" t="s">
+      <c r="AR1" s="175"/>
+      <c r="AS1" s="175"/>
+      <c r="AT1" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="172" t="s">
+      <c r="AU1" s="176"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="176"/>
+      <c r="AX1" s="176"/>
+      <c r="AY1" s="176"/>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="172"/>
-      <c r="BC1" s="172"/>
-      <c r="BD1" s="174">
+      <c r="BB1" s="175"/>
+      <c r="BC1" s="175"/>
+      <c r="BD1" s="178">
         <v>45909</v>
       </c>
-      <c r="BE1" s="174"/>
-      <c r="BF1" s="174"/>
-      <c r="BG1" s="174"/>
-      <c r="BH1" s="174"/>
-      <c r="BI1" s="174"/>
+      <c r="BE1" s="178"/>
+      <c r="BF1" s="178"/>
+      <c r="BG1" s="178"/>
+      <c r="BH1" s="178"/>
+      <c r="BI1" s="178"/>
       <c r="BJ1" s="53"/>
       <c r="BK1" s="53"/>
       <c r="BL1" s="53"/>
@@ -21666,80 +21520,80 @@
       <c r="IX1" s="53"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="172" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="172" t="s">
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="171" t="str">
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="176" t="str">
         <f>クラス仕様!G6</f>
         <v>MainServlert</v>
       </c>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="171"/>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="172" t="s">
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="176"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="176"/>
+      <c r="AJ2" s="176"/>
+      <c r="AK2" s="176"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="172"/>
-      <c r="AS2" s="172"/>
-      <c r="AT2" s="171"/>
-      <c r="AU2" s="171"/>
-      <c r="AV2" s="171"/>
-      <c r="AW2" s="171"/>
-      <c r="AX2" s="171"/>
-      <c r="AY2" s="171"/>
-      <c r="AZ2" s="171"/>
-      <c r="BA2" s="172" t="s">
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="176"/>
+      <c r="AU2" s="176"/>
+      <c r="AV2" s="176"/>
+      <c r="AW2" s="176"/>
+      <c r="AX2" s="176"/>
+      <c r="AY2" s="176"/>
+      <c r="AZ2" s="176"/>
+      <c r="BA2" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="172"/>
-      <c r="BC2" s="172"/>
-      <c r="BD2" s="174">
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="178">
         <v>45910</v>
       </c>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="174"/>
-      <c r="BH2" s="174"/>
-      <c r="BI2" s="174"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="178"/>
+      <c r="BH2" s="178"/>
+      <c r="BI2" s="178"/>
       <c r="BJ2" s="53"/>
       <c r="BK2" s="53"/>
       <c r="BL2" s="53"/>
@@ -21939,71 +21793,71 @@
       <c r="IX2" s="53"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="211" t="s">
-        <v>72</v>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="198" t="s">
+        <v>71</v>
       </c>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="211"/>
-      <c r="S4" s="211"/>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="211"/>
-      <c r="W4" s="211"/>
-      <c r="X4" s="211"/>
-      <c r="Y4" s="211"/>
-      <c r="Z4" s="211"/>
-      <c r="AA4" s="211"/>
-      <c r="AB4" s="211"/>
-      <c r="AC4" s="211"/>
-      <c r="AD4" s="211"/>
-      <c r="AE4" s="211"/>
-      <c r="AF4" s="211"/>
-      <c r="AG4" s="211"/>
-      <c r="AH4" s="211"/>
-      <c r="AI4" s="211"/>
-      <c r="AJ4" s="211"/>
-      <c r="AK4" s="211"/>
-      <c r="AL4" s="211"/>
-      <c r="AM4" s="211"/>
-      <c r="AN4" s="211"/>
-      <c r="AO4" s="211"/>
-      <c r="AP4" s="211"/>
-      <c r="AQ4" s="211"/>
-      <c r="AR4" s="211"/>
-      <c r="AS4" s="211"/>
-      <c r="AT4" s="211"/>
-      <c r="AU4" s="211"/>
-      <c r="AV4" s="211"/>
-      <c r="AW4" s="211"/>
-      <c r="AX4" s="211"/>
-      <c r="AY4" s="211"/>
-      <c r="AZ4" s="211"/>
-      <c r="BA4" s="211"/>
-      <c r="BB4" s="211"/>
-      <c r="BC4" s="211"/>
-      <c r="BD4" s="211"/>
-      <c r="BE4" s="211"/>
-      <c r="BF4" s="211"/>
-      <c r="BG4" s="211"/>
-      <c r="BH4" s="211"/>
-      <c r="BI4" s="211"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="198"/>
+      <c r="W4" s="198"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="198"/>
+      <c r="Z4" s="198"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="198"/>
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="198"/>
+      <c r="AI4" s="198"/>
+      <c r="AJ4" s="198"/>
+      <c r="AK4" s="198"/>
+      <c r="AL4" s="198"/>
+      <c r="AM4" s="198"/>
+      <c r="AN4" s="198"/>
+      <c r="AO4" s="198"/>
+      <c r="AP4" s="198"/>
+      <c r="AQ4" s="198"/>
+      <c r="AR4" s="198"/>
+      <c r="AS4" s="198"/>
+      <c r="AT4" s="198"/>
+      <c r="AU4" s="198"/>
+      <c r="AV4" s="198"/>
+      <c r="AW4" s="198"/>
+      <c r="AX4" s="198"/>
+      <c r="AY4" s="198"/>
+      <c r="AZ4" s="198"/>
+      <c r="BA4" s="198"/>
+      <c r="BB4" s="198"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="198"/>
+      <c r="BI4" s="198"/>
       <c r="BJ4" s="53"/>
       <c r="BK4" s="53"/>
       <c r="BL4" s="53"/>
@@ -22203,71 +22057,71 @@
       <c r="IX4" s="53"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="213" t="s">
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="213"/>
-      <c r="V5" s="213"/>
-      <c r="W5" s="213"/>
-      <c r="X5" s="213"/>
-      <c r="Y5" s="213"/>
-      <c r="Z5" s="213"/>
-      <c r="AA5" s="213"/>
-      <c r="AB5" s="213"/>
-      <c r="AC5" s="213"/>
-      <c r="AD5" s="213"/>
-      <c r="AE5" s="213"/>
-      <c r="AF5" s="213"/>
-      <c r="AG5" s="213"/>
-      <c r="AH5" s="213"/>
-      <c r="AI5" s="213"/>
-      <c r="AJ5" s="213"/>
-      <c r="AK5" s="213"/>
-      <c r="AL5" s="213"/>
-      <c r="AM5" s="213"/>
-      <c r="AN5" s="213"/>
-      <c r="AO5" s="213"/>
-      <c r="AP5" s="213"/>
-      <c r="AQ5" s="213"/>
-      <c r="AR5" s="213"/>
-      <c r="AS5" s="213"/>
-      <c r="AT5" s="213"/>
-      <c r="AU5" s="213"/>
-      <c r="AV5" s="213"/>
-      <c r="AW5" s="213"/>
-      <c r="AX5" s="213"/>
-      <c r="AY5" s="213"/>
-      <c r="AZ5" s="213"/>
-      <c r="BA5" s="213"/>
-      <c r="BB5" s="213"/>
-      <c r="BC5" s="213"/>
-      <c r="BD5" s="213"/>
-      <c r="BE5" s="213"/>
-      <c r="BF5" s="213"/>
-      <c r="BG5" s="213"/>
-      <c r="BH5" s="213"/>
-      <c r="BI5" s="213"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="200"/>
+      <c r="AF5" s="200"/>
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="200"/>
+      <c r="AM5" s="200"/>
+      <c r="AN5" s="200"/>
+      <c r="AO5" s="200"/>
+      <c r="AP5" s="200"/>
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="200"/>
+      <c r="AS5" s="200"/>
+      <c r="AT5" s="200"/>
+      <c r="AU5" s="200"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="200"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="200"/>
+      <c r="AZ5" s="200"/>
+      <c r="BA5" s="200"/>
+      <c r="BB5" s="200"/>
+      <c r="BC5" s="200"/>
+      <c r="BD5" s="200"/>
+      <c r="BE5" s="200"/>
+      <c r="BF5" s="200"/>
+      <c r="BG5" s="200"/>
+      <c r="BH5" s="200"/>
+      <c r="BI5" s="200"/>
       <c r="BJ5" s="53"/>
       <c r="BK5" s="53"/>
       <c r="BL5" s="53"/>
@@ -22994,71 +22848,71 @@
       <c r="B8" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164" t="s">
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164" t="s">
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="164" t="s">
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="159"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="164"/>
-      <c r="AD8" s="164"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="164"/>
-      <c r="AH8" s="164"/>
-      <c r="AI8" s="164"/>
-      <c r="AJ8" s="164"/>
-      <c r="AK8" s="164"/>
-      <c r="AL8" s="164"/>
-      <c r="AM8" s="164"/>
-      <c r="AN8" s="164"/>
-      <c r="AO8" s="164"/>
-      <c r="AP8" s="164"/>
-      <c r="AQ8" s="164"/>
-      <c r="AR8" s="164"/>
-      <c r="AS8" s="164"/>
-      <c r="AT8" s="164"/>
-      <c r="AU8" s="164"/>
-      <c r="AV8" s="164"/>
-      <c r="AW8" s="164"/>
-      <c r="AX8" s="164"/>
-      <c r="AY8" s="164"/>
-      <c r="AZ8" s="164"/>
-      <c r="BA8" s="164"/>
-      <c r="BB8" s="164"/>
-      <c r="BC8" s="164"/>
-      <c r="BD8" s="164"/>
-      <c r="BE8" s="164"/>
-      <c r="BF8" s="164"/>
-      <c r="BG8" s="164"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="159"/>
+      <c r="AF8" s="159"/>
+      <c r="AG8" s="159"/>
+      <c r="AH8" s="159"/>
+      <c r="AI8" s="159"/>
+      <c r="AJ8" s="159"/>
+      <c r="AK8" s="159"/>
+      <c r="AL8" s="159"/>
+      <c r="AM8" s="159"/>
+      <c r="AN8" s="159"/>
+      <c r="AO8" s="159"/>
+      <c r="AP8" s="159"/>
+      <c r="AQ8" s="159"/>
+      <c r="AR8" s="159"/>
+      <c r="AS8" s="159"/>
+      <c r="AT8" s="159"/>
+      <c r="AU8" s="159"/>
+      <c r="AV8" s="159"/>
+      <c r="AW8" s="159"/>
+      <c r="AX8" s="159"/>
+      <c r="AY8" s="159"/>
+      <c r="AZ8" s="159"/>
+      <c r="BA8" s="159"/>
+      <c r="BB8" s="159"/>
+      <c r="BC8" s="159"/>
+      <c r="BD8" s="159"/>
+      <c r="BE8" s="159"/>
+      <c r="BF8" s="159"/>
+      <c r="BG8" s="159"/>
       <c r="BH8" s="63"/>
       <c r="BI8" s="72"/>
       <c r="BJ8" s="55"/>
@@ -23265,71 +23119,71 @@
       <c r="B9" s="114">
         <v>1</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191" t="s">
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="191"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191" t="s">
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="201" t="s">
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="201"/>
-      <c r="AC9" s="201"/>
-      <c r="AD9" s="201"/>
-      <c r="AE9" s="201"/>
-      <c r="AF9" s="201"/>
-      <c r="AG9" s="201"/>
-      <c r="AH9" s="201"/>
-      <c r="AI9" s="201"/>
-      <c r="AJ9" s="201"/>
-      <c r="AK9" s="201"/>
-      <c r="AL9" s="201"/>
-      <c r="AM9" s="201"/>
-      <c r="AN9" s="201"/>
-      <c r="AO9" s="201"/>
-      <c r="AP9" s="201"/>
-      <c r="AQ9" s="201"/>
-      <c r="AR9" s="201"/>
-      <c r="AS9" s="201"/>
-      <c r="AT9" s="201"/>
-      <c r="AU9" s="201"/>
-      <c r="AV9" s="201"/>
-      <c r="AW9" s="201"/>
-      <c r="AX9" s="201"/>
-      <c r="AY9" s="201"/>
-      <c r="AZ9" s="201"/>
-      <c r="BA9" s="201"/>
-      <c r="BB9" s="201"/>
-      <c r="BC9" s="201"/>
-      <c r="BD9" s="201"/>
-      <c r="BE9" s="201"/>
-      <c r="BF9" s="201"/>
-      <c r="BG9" s="201"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207"/>
+      <c r="AE9" s="207"/>
+      <c r="AF9" s="207"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="207"/>
+      <c r="AI9" s="207"/>
+      <c r="AJ9" s="207"/>
+      <c r="AK9" s="207"/>
+      <c r="AL9" s="207"/>
+      <c r="AM9" s="207"/>
+      <c r="AN9" s="207"/>
+      <c r="AO9" s="207"/>
+      <c r="AP9" s="207"/>
+      <c r="AQ9" s="207"/>
+      <c r="AR9" s="207"/>
+      <c r="AS9" s="207"/>
+      <c r="AT9" s="207"/>
+      <c r="AU9" s="207"/>
+      <c r="AV9" s="207"/>
+      <c r="AW9" s="207"/>
+      <c r="AX9" s="207"/>
+      <c r="AY9" s="207"/>
+      <c r="AZ9" s="207"/>
+      <c r="BA9" s="207"/>
+      <c r="BB9" s="207"/>
+      <c r="BC9" s="207"/>
+      <c r="BD9" s="207"/>
+      <c r="BE9" s="207"/>
+      <c r="BF9" s="207"/>
+      <c r="BG9" s="207"/>
       <c r="BH9" s="63"/>
       <c r="BI9" s="72"/>
       <c r="BJ9" s="55"/>
@@ -23536,71 +23390,71 @@
       <c r="B10" s="114">
         <v>2</v>
       </c>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="191"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191" t="s">
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="201" t="s">
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="207" t="s">
         <v>56</v>
       </c>
-      <c r="AB10" s="201"/>
-      <c r="AC10" s="201"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="201"/>
-      <c r="AF10" s="201"/>
-      <c r="AG10" s="201"/>
-      <c r="AH10" s="201"/>
-      <c r="AI10" s="201"/>
-      <c r="AJ10" s="201"/>
-      <c r="AK10" s="201"/>
-      <c r="AL10" s="201"/>
-      <c r="AM10" s="201"/>
-      <c r="AN10" s="201"/>
-      <c r="AO10" s="201"/>
-      <c r="AP10" s="201"/>
-      <c r="AQ10" s="201"/>
-      <c r="AR10" s="201"/>
-      <c r="AS10" s="201"/>
-      <c r="AT10" s="201"/>
-      <c r="AU10" s="201"/>
-      <c r="AV10" s="201"/>
-      <c r="AW10" s="201"/>
-      <c r="AX10" s="201"/>
-      <c r="AY10" s="201"/>
-      <c r="AZ10" s="201"/>
-      <c r="BA10" s="201"/>
-      <c r="BB10" s="201"/>
-      <c r="BC10" s="201"/>
-      <c r="BD10" s="201"/>
-      <c r="BE10" s="201"/>
-      <c r="BF10" s="201"/>
-      <c r="BG10" s="201"/>
+      <c r="AB10" s="207"/>
+      <c r="AC10" s="207"/>
+      <c r="AD10" s="207"/>
+      <c r="AE10" s="207"/>
+      <c r="AF10" s="207"/>
+      <c r="AG10" s="207"/>
+      <c r="AH10" s="207"/>
+      <c r="AI10" s="207"/>
+      <c r="AJ10" s="207"/>
+      <c r="AK10" s="207"/>
+      <c r="AL10" s="207"/>
+      <c r="AM10" s="207"/>
+      <c r="AN10" s="207"/>
+      <c r="AO10" s="207"/>
+      <c r="AP10" s="207"/>
+      <c r="AQ10" s="207"/>
+      <c r="AR10" s="207"/>
+      <c r="AS10" s="207"/>
+      <c r="AT10" s="207"/>
+      <c r="AU10" s="207"/>
+      <c r="AV10" s="207"/>
+      <c r="AW10" s="207"/>
+      <c r="AX10" s="207"/>
+      <c r="AY10" s="207"/>
+      <c r="AZ10" s="207"/>
+      <c r="BA10" s="207"/>
+      <c r="BB10" s="207"/>
+      <c r="BC10" s="207"/>
+      <c r="BD10" s="207"/>
+      <c r="BE10" s="207"/>
+      <c r="BF10" s="207"/>
+      <c r="BG10" s="207"/>
       <c r="BH10" s="113"/>
       <c r="BI10" s="116"/>
       <c r="BJ10" s="112"/>
@@ -24331,71 +24185,71 @@
       <c r="B13" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164" t="s">
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164" t="s">
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="164"/>
-      <c r="AA13" s="164" t="s">
+      <c r="T13" s="159"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="159"/>
+      <c r="X13" s="159"/>
+      <c r="Y13" s="159"/>
+      <c r="Z13" s="159"/>
+      <c r="AA13" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AB13" s="164"/>
-      <c r="AC13" s="164"/>
-      <c r="AD13" s="164"/>
-      <c r="AE13" s="164"/>
-      <c r="AF13" s="164"/>
-      <c r="AG13" s="164"/>
-      <c r="AH13" s="164"/>
-      <c r="AI13" s="164"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="164"/>
-      <c r="AL13" s="164"/>
-      <c r="AM13" s="164"/>
-      <c r="AN13" s="164"/>
-      <c r="AO13" s="164"/>
-      <c r="AP13" s="164"/>
-      <c r="AQ13" s="164"/>
-      <c r="AR13" s="164"/>
-      <c r="AS13" s="164"/>
-      <c r="AT13" s="164"/>
-      <c r="AU13" s="164"/>
-      <c r="AV13" s="164"/>
-      <c r="AW13" s="164"/>
-      <c r="AX13" s="164"/>
-      <c r="AY13" s="164"/>
-      <c r="AZ13" s="164"/>
-      <c r="BA13" s="164"/>
-      <c r="BB13" s="164"/>
-      <c r="BC13" s="164"/>
-      <c r="BD13" s="164"/>
-      <c r="BE13" s="164"/>
-      <c r="BF13" s="164"/>
-      <c r="BG13" s="164"/>
+      <c r="AB13" s="159"/>
+      <c r="AC13" s="159"/>
+      <c r="AD13" s="159"/>
+      <c r="AE13" s="159"/>
+      <c r="AF13" s="159"/>
+      <c r="AG13" s="159"/>
+      <c r="AH13" s="159"/>
+      <c r="AI13" s="159"/>
+      <c r="AJ13" s="159"/>
+      <c r="AK13" s="159"/>
+      <c r="AL13" s="159"/>
+      <c r="AM13" s="159"/>
+      <c r="AN13" s="159"/>
+      <c r="AO13" s="159"/>
+      <c r="AP13" s="159"/>
+      <c r="AQ13" s="159"/>
+      <c r="AR13" s="159"/>
+      <c r="AS13" s="159"/>
+      <c r="AT13" s="159"/>
+      <c r="AU13" s="159"/>
+      <c r="AV13" s="159"/>
+      <c r="AW13" s="159"/>
+      <c r="AX13" s="159"/>
+      <c r="AY13" s="159"/>
+      <c r="AZ13" s="159"/>
+      <c r="BA13" s="159"/>
+      <c r="BB13" s="159"/>
+      <c r="BC13" s="159"/>
+      <c r="BD13" s="159"/>
+      <c r="BE13" s="159"/>
+      <c r="BF13" s="159"/>
+      <c r="BG13" s="159"/>
       <c r="BH13" s="63"/>
       <c r="BI13" s="72"/>
       <c r="BJ13" s="55"/>
@@ -24602,65 +24456,65 @@
       <c r="B14" s="67">
         <v>1</v>
       </c>
-      <c r="C14" s="191" t="s">
-        <v>77</v>
+      <c r="C14" s="151" t="s">
+        <v>75</v>
       </c>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="201"/>
-      <c r="AB14" s="201"/>
-      <c r="AC14" s="201"/>
-      <c r="AD14" s="201"/>
-      <c r="AE14" s="201"/>
-      <c r="AF14" s="201"/>
-      <c r="AG14" s="201"/>
-      <c r="AH14" s="201"/>
-      <c r="AI14" s="201"/>
-      <c r="AJ14" s="201"/>
-      <c r="AK14" s="201"/>
-      <c r="AL14" s="201"/>
-      <c r="AM14" s="201"/>
-      <c r="AN14" s="201"/>
-      <c r="AO14" s="201"/>
-      <c r="AP14" s="201"/>
-      <c r="AQ14" s="201"/>
-      <c r="AR14" s="201"/>
-      <c r="AS14" s="201"/>
-      <c r="AT14" s="201"/>
-      <c r="AU14" s="201"/>
-      <c r="AV14" s="201"/>
-      <c r="AW14" s="201"/>
-      <c r="AX14" s="201"/>
-      <c r="AY14" s="201"/>
-      <c r="AZ14" s="201"/>
-      <c r="BA14" s="201"/>
-      <c r="BB14" s="201"/>
-      <c r="BC14" s="201"/>
-      <c r="BD14" s="201"/>
-      <c r="BE14" s="201"/>
-      <c r="BF14" s="201"/>
-      <c r="BG14" s="201"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="207"/>
+      <c r="AB14" s="207"/>
+      <c r="AC14" s="207"/>
+      <c r="AD14" s="207"/>
+      <c r="AE14" s="207"/>
+      <c r="AF14" s="207"/>
+      <c r="AG14" s="207"/>
+      <c r="AH14" s="207"/>
+      <c r="AI14" s="207"/>
+      <c r="AJ14" s="207"/>
+      <c r="AK14" s="207"/>
+      <c r="AL14" s="207"/>
+      <c r="AM14" s="207"/>
+      <c r="AN14" s="207"/>
+      <c r="AO14" s="207"/>
+      <c r="AP14" s="207"/>
+      <c r="AQ14" s="207"/>
+      <c r="AR14" s="207"/>
+      <c r="AS14" s="207"/>
+      <c r="AT14" s="207"/>
+      <c r="AU14" s="207"/>
+      <c r="AV14" s="207"/>
+      <c r="AW14" s="207"/>
+      <c r="AX14" s="207"/>
+      <c r="AY14" s="207"/>
+      <c r="AZ14" s="207"/>
+      <c r="BA14" s="207"/>
+      <c r="BB14" s="207"/>
+      <c r="BC14" s="207"/>
+      <c r="BD14" s="207"/>
+      <c r="BE14" s="207"/>
+      <c r="BF14" s="207"/>
+      <c r="BG14" s="207"/>
       <c r="BH14" s="63"/>
       <c r="BI14" s="72"/>
       <c r="BJ14" s="55"/>
@@ -25193,77 +25047,77 @@
       <c r="B17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="165" t="s">
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="165" t="s">
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="165"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="193" t="s">
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" s="176"/>
-      <c r="AC17" s="210" t="s">
+      <c r="AB17" s="169"/>
+      <c r="AC17" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="AD17" s="176"/>
-      <c r="AE17" s="210" t="s">
+      <c r="AD17" s="169"/>
+      <c r="AE17" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="179"/>
-      <c r="AJ17" s="179"/>
-      <c r="AK17" s="179"/>
-      <c r="AL17" s="179"/>
-      <c r="AM17" s="179"/>
-      <c r="AN17" s="179"/>
-      <c r="AO17" s="179"/>
-      <c r="AP17" s="179"/>
-      <c r="AQ17" s="179"/>
-      <c r="AR17" s="179"/>
-      <c r="AS17" s="179"/>
-      <c r="AT17" s="179"/>
-      <c r="AU17" s="179"/>
-      <c r="AV17" s="179"/>
-      <c r="AW17" s="179"/>
-      <c r="AX17" s="179"/>
-      <c r="AY17" s="164" t="s">
+      <c r="AF17" s="168"/>
+      <c r="AG17" s="168"/>
+      <c r="AH17" s="168"/>
+      <c r="AI17" s="168"/>
+      <c r="AJ17" s="168"/>
+      <c r="AK17" s="168"/>
+      <c r="AL17" s="168"/>
+      <c r="AM17" s="168"/>
+      <c r="AN17" s="168"/>
+      <c r="AO17" s="168"/>
+      <c r="AP17" s="168"/>
+      <c r="AQ17" s="168"/>
+      <c r="AR17" s="168"/>
+      <c r="AS17" s="168"/>
+      <c r="AT17" s="168"/>
+      <c r="AU17" s="168"/>
+      <c r="AV17" s="168"/>
+      <c r="AW17" s="168"/>
+      <c r="AX17" s="168"/>
+      <c r="AY17" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AZ17" s="164"/>
-      <c r="BA17" s="164"/>
-      <c r="BB17" s="164"/>
-      <c r="BC17" s="164"/>
-      <c r="BD17" s="164"/>
-      <c r="BE17" s="164"/>
-      <c r="BF17" s="164"/>
-      <c r="BG17" s="164"/>
+      <c r="AZ17" s="159"/>
+      <c r="BA17" s="159"/>
+      <c r="BB17" s="159"/>
+      <c r="BC17" s="159"/>
+      <c r="BD17" s="159"/>
+      <c r="BE17" s="159"/>
+      <c r="BF17" s="159"/>
+      <c r="BG17" s="159"/>
       <c r="BH17" s="63"/>
       <c r="BI17" s="72"/>
       <c r="BJ17" s="55"/>
@@ -25470,73 +25324,73 @@
       <c r="B18" s="67">
         <v>1</v>
       </c>
-      <c r="C18" s="153" t="s">
+      <c r="C18" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="155" t="s">
-        <v>70</v>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="193" t="s">
+        <v>66</v>
       </c>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="202" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB18" s="203"/>
-      <c r="AC18" s="202" t="s">
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="AD18" s="203"/>
-      <c r="AE18" s="199"/>
-      <c r="AF18" s="192"/>
-      <c r="AG18" s="192"/>
-      <c r="AH18" s="192"/>
-      <c r="AI18" s="192"/>
-      <c r="AJ18" s="192"/>
-      <c r="AK18" s="192"/>
-      <c r="AL18" s="192"/>
-      <c r="AM18" s="192"/>
-      <c r="AN18" s="192"/>
-      <c r="AO18" s="192"/>
-      <c r="AP18" s="192"/>
-      <c r="AQ18" s="192"/>
-      <c r="AR18" s="192"/>
-      <c r="AS18" s="192"/>
-      <c r="AT18" s="192"/>
-      <c r="AU18" s="192"/>
-      <c r="AV18" s="192"/>
-      <c r="AW18" s="192"/>
-      <c r="AX18" s="192"/>
-      <c r="AY18" s="200"/>
-      <c r="AZ18" s="200"/>
-      <c r="BA18" s="200"/>
-      <c r="BB18" s="200"/>
-      <c r="BC18" s="200"/>
-      <c r="BD18" s="200"/>
-      <c r="BE18" s="200"/>
-      <c r="BF18" s="200"/>
-      <c r="BG18" s="200"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="209"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="154"/>
+      <c r="AJ18" s="154"/>
+      <c r="AK18" s="154"/>
+      <c r="AL18" s="154"/>
+      <c r="AM18" s="154"/>
+      <c r="AN18" s="154"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="154"/>
+      <c r="AQ18" s="154"/>
+      <c r="AR18" s="154"/>
+      <c r="AS18" s="154"/>
+      <c r="AT18" s="154"/>
+      <c r="AU18" s="154"/>
+      <c r="AV18" s="154"/>
+      <c r="AW18" s="154"/>
+      <c r="AX18" s="154"/>
+      <c r="AY18" s="195"/>
+      <c r="AZ18" s="195"/>
+      <c r="BA18" s="195"/>
+      <c r="BB18" s="195"/>
+      <c r="BC18" s="195"/>
+      <c r="BD18" s="195"/>
+      <c r="BE18" s="195"/>
+      <c r="BF18" s="195"/>
+      <c r="BG18" s="195"/>
       <c r="BH18" s="63"/>
       <c r="BI18" s="72"/>
       <c r="BJ18" s="55"/>
@@ -25741,65 +25595,65 @@
     <row r="19" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="114"/>
-      <c r="C19" s="155" t="s">
-        <v>77</v>
+      <c r="C19" s="156" t="s">
+        <v>75</v>
       </c>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="202"/>
-      <c r="AB19" s="203"/>
-      <c r="AC19" s="202"/>
-      <c r="AD19" s="203"/>
-      <c r="AE19" s="199"/>
-      <c r="AF19" s="192"/>
-      <c r="AG19" s="192"/>
-      <c r="AH19" s="192"/>
-      <c r="AI19" s="192"/>
-      <c r="AJ19" s="192"/>
-      <c r="AK19" s="192"/>
-      <c r="AL19" s="192"/>
-      <c r="AM19" s="192"/>
-      <c r="AN19" s="192"/>
-      <c r="AO19" s="192"/>
-      <c r="AP19" s="192"/>
-      <c r="AQ19" s="192"/>
-      <c r="AR19" s="192"/>
-      <c r="AS19" s="192"/>
-      <c r="AT19" s="192"/>
-      <c r="AU19" s="192"/>
-      <c r="AV19" s="192"/>
-      <c r="AW19" s="192"/>
-      <c r="AX19" s="192"/>
-      <c r="AY19" s="200"/>
-      <c r="AZ19" s="200"/>
-      <c r="BA19" s="200"/>
-      <c r="BB19" s="200"/>
-      <c r="BC19" s="200"/>
-      <c r="BD19" s="200"/>
-      <c r="BE19" s="200"/>
-      <c r="BF19" s="200"/>
-      <c r="BG19" s="200"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="193"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="193"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="209"/>
+      <c r="AF19" s="154"/>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="154"/>
+      <c r="AI19" s="154"/>
+      <c r="AJ19" s="154"/>
+      <c r="AK19" s="154"/>
+      <c r="AL19" s="154"/>
+      <c r="AM19" s="154"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="154"/>
+      <c r="AP19" s="154"/>
+      <c r="AQ19" s="154"/>
+      <c r="AR19" s="154"/>
+      <c r="AS19" s="154"/>
+      <c r="AT19" s="154"/>
+      <c r="AU19" s="154"/>
+      <c r="AV19" s="154"/>
+      <c r="AW19" s="154"/>
+      <c r="AX19" s="154"/>
+      <c r="AY19" s="195"/>
+      <c r="AZ19" s="195"/>
+      <c r="BA19" s="195"/>
+      <c r="BB19" s="195"/>
+      <c r="BC19" s="195"/>
+      <c r="BD19" s="195"/>
+      <c r="BE19" s="195"/>
+      <c r="BF19" s="195"/>
+      <c r="BG19" s="195"/>
       <c r="BH19" s="63"/>
       <c r="BI19" s="72"/>
       <c r="BJ19" s="55"/>
@@ -26530,71 +26384,71 @@
       <c r="B22" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="164" t="s">
+      <c r="C22" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164" t="s">
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164" t="s">
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="164"/>
-      <c r="Z22" s="164"/>
-      <c r="AA22" s="164" t="s">
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="159"/>
+      <c r="X22" s="159"/>
+      <c r="Y22" s="159"/>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="164"/>
-      <c r="AD22" s="164"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="164"/>
-      <c r="AG22" s="164"/>
-      <c r="AH22" s="164"/>
-      <c r="AI22" s="164"/>
-      <c r="AJ22" s="164"/>
-      <c r="AK22" s="164"/>
-      <c r="AL22" s="164"/>
-      <c r="AM22" s="164"/>
-      <c r="AN22" s="164"/>
-      <c r="AO22" s="164"/>
-      <c r="AP22" s="164"/>
-      <c r="AQ22" s="164"/>
-      <c r="AR22" s="164"/>
-      <c r="AS22" s="164"/>
-      <c r="AT22" s="164"/>
-      <c r="AU22" s="164"/>
-      <c r="AV22" s="164"/>
-      <c r="AW22" s="164"/>
-      <c r="AX22" s="164"/>
-      <c r="AY22" s="164"/>
-      <c r="AZ22" s="164"/>
-      <c r="BA22" s="164"/>
-      <c r="BB22" s="164"/>
-      <c r="BC22" s="164"/>
-      <c r="BD22" s="164"/>
-      <c r="BE22" s="164"/>
-      <c r="BF22" s="164"/>
-      <c r="BG22" s="164"/>
+      <c r="AB22" s="159"/>
+      <c r="AC22" s="159"/>
+      <c r="AD22" s="159"/>
+      <c r="AE22" s="159"/>
+      <c r="AF22" s="159"/>
+      <c r="AG22" s="159"/>
+      <c r="AH22" s="159"/>
+      <c r="AI22" s="159"/>
+      <c r="AJ22" s="159"/>
+      <c r="AK22" s="159"/>
+      <c r="AL22" s="159"/>
+      <c r="AM22" s="159"/>
+      <c r="AN22" s="159"/>
+      <c r="AO22" s="159"/>
+      <c r="AP22" s="159"/>
+      <c r="AQ22" s="159"/>
+      <c r="AR22" s="159"/>
+      <c r="AS22" s="159"/>
+      <c r="AT22" s="159"/>
+      <c r="AU22" s="159"/>
+      <c r="AV22" s="159"/>
+      <c r="AW22" s="159"/>
+      <c r="AX22" s="159"/>
+      <c r="AY22" s="159"/>
+      <c r="AZ22" s="159"/>
+      <c r="BA22" s="159"/>
+      <c r="BB22" s="159"/>
+      <c r="BC22" s="159"/>
+      <c r="BD22" s="159"/>
+      <c r="BE22" s="159"/>
+      <c r="BF22" s="159"/>
+      <c r="BG22" s="159"/>
       <c r="BH22" s="63"/>
       <c r="BI22" s="72"/>
       <c r="BJ22" s="55"/>
@@ -26801,71 +26655,71 @@
       <c r="B23" s="114">
         <v>1</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="191" t="s">
-        <v>77</v>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151" t="s">
+        <v>75</v>
       </c>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="191"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="191"/>
-      <c r="R23" s="191"/>
-      <c r="S23" s="191" t="s">
-        <v>61</v>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151" t="s">
+        <v>60</v>
       </c>
-      <c r="T23" s="191"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="201" t="s">
+      <c r="T23" s="151"/>
+      <c r="U23" s="151"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="AB23" s="201"/>
-      <c r="AC23" s="201"/>
-      <c r="AD23" s="201"/>
-      <c r="AE23" s="201"/>
-      <c r="AF23" s="201"/>
-      <c r="AG23" s="201"/>
-      <c r="AH23" s="201"/>
-      <c r="AI23" s="201"/>
-      <c r="AJ23" s="201"/>
-      <c r="AK23" s="201"/>
-      <c r="AL23" s="201"/>
-      <c r="AM23" s="201"/>
-      <c r="AN23" s="201"/>
-      <c r="AO23" s="201"/>
-      <c r="AP23" s="201"/>
-      <c r="AQ23" s="201"/>
-      <c r="AR23" s="201"/>
-      <c r="AS23" s="201"/>
-      <c r="AT23" s="201"/>
-      <c r="AU23" s="201"/>
-      <c r="AV23" s="201"/>
-      <c r="AW23" s="201"/>
-      <c r="AX23" s="201"/>
-      <c r="AY23" s="201"/>
-      <c r="AZ23" s="201"/>
-      <c r="BA23" s="201"/>
-      <c r="BB23" s="201"/>
-      <c r="BC23" s="201"/>
-      <c r="BD23" s="201"/>
-      <c r="BE23" s="201"/>
-      <c r="BF23" s="201"/>
-      <c r="BG23" s="201"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="207"/>
+      <c r="AD23" s="207"/>
+      <c r="AE23" s="207"/>
+      <c r="AF23" s="207"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="207"/>
+      <c r="AI23" s="207"/>
+      <c r="AJ23" s="207"/>
+      <c r="AK23" s="207"/>
+      <c r="AL23" s="207"/>
+      <c r="AM23" s="207"/>
+      <c r="AN23" s="207"/>
+      <c r="AO23" s="207"/>
+      <c r="AP23" s="207"/>
+      <c r="AQ23" s="207"/>
+      <c r="AR23" s="207"/>
+      <c r="AS23" s="207"/>
+      <c r="AT23" s="207"/>
+      <c r="AU23" s="207"/>
+      <c r="AV23" s="207"/>
+      <c r="AW23" s="207"/>
+      <c r="AX23" s="207"/>
+      <c r="AY23" s="207"/>
+      <c r="AZ23" s="207"/>
+      <c r="BA23" s="207"/>
+      <c r="BB23" s="207"/>
+      <c r="BC23" s="207"/>
+      <c r="BD23" s="207"/>
+      <c r="BE23" s="207"/>
+      <c r="BF23" s="207"/>
+      <c r="BG23" s="207"/>
       <c r="BH23" s="63"/>
       <c r="BI23" s="72"/>
       <c r="BJ23" s="55"/>
@@ -27072,71 +26926,71 @@
       <c r="B24" s="114">
         <v>2</v>
       </c>
-      <c r="C24" s="146" t="s">
-        <v>109</v>
+      <c r="C24" s="180" t="s">
+        <v>106</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="146" t="s">
-        <v>103</v>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="180" t="s">
+        <v>100</v>
       </c>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="146" t="s">
-        <v>104</v>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="180" t="s">
+        <v>101</v>
       </c>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="150" t="s">
-        <v>105</v>
+      <c r="T24" s="181"/>
+      <c r="U24" s="181"/>
+      <c r="V24" s="181"/>
+      <c r="W24" s="181"/>
+      <c r="X24" s="181"/>
+      <c r="Y24" s="181"/>
+      <c r="Z24" s="182"/>
+      <c r="AA24" s="184" t="s">
+        <v>102</v>
       </c>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="151"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="151"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="151"/>
-      <c r="AM24" s="151"/>
-      <c r="AN24" s="151"/>
-      <c r="AO24" s="151"/>
-      <c r="AP24" s="151"/>
-      <c r="AQ24" s="151"/>
-      <c r="AR24" s="151"/>
-      <c r="AS24" s="151"/>
-      <c r="AT24" s="151"/>
-      <c r="AU24" s="151"/>
-      <c r="AV24" s="151"/>
-      <c r="AW24" s="151"/>
-      <c r="AX24" s="151"/>
-      <c r="AY24" s="151"/>
-      <c r="AZ24" s="151"/>
-      <c r="BA24" s="151"/>
-      <c r="BB24" s="151"/>
-      <c r="BC24" s="151"/>
-      <c r="BD24" s="151"/>
-      <c r="BE24" s="151"/>
-      <c r="BF24" s="151"/>
-      <c r="BG24" s="194"/>
+      <c r="AB24" s="185"/>
+      <c r="AC24" s="185"/>
+      <c r="AD24" s="185"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="185"/>
+      <c r="AG24" s="185"/>
+      <c r="AH24" s="185"/>
+      <c r="AI24" s="185"/>
+      <c r="AJ24" s="185"/>
+      <c r="AK24" s="185"/>
+      <c r="AL24" s="185"/>
+      <c r="AM24" s="185"/>
+      <c r="AN24" s="185"/>
+      <c r="AO24" s="185"/>
+      <c r="AP24" s="185"/>
+      <c r="AQ24" s="185"/>
+      <c r="AR24" s="185"/>
+      <c r="AS24" s="185"/>
+      <c r="AT24" s="185"/>
+      <c r="AU24" s="185"/>
+      <c r="AV24" s="185"/>
+      <c r="AW24" s="185"/>
+      <c r="AX24" s="185"/>
+      <c r="AY24" s="185"/>
+      <c r="AZ24" s="185"/>
+      <c r="BA24" s="185"/>
+      <c r="BB24" s="185"/>
+      <c r="BC24" s="185"/>
+      <c r="BD24" s="185"/>
+      <c r="BE24" s="185"/>
+      <c r="BF24" s="185"/>
+      <c r="BG24" s="210"/>
       <c r="BH24" s="63"/>
       <c r="BI24" s="72"/>
       <c r="BJ24" s="55"/>
@@ -27343,71 +27197,71 @@
       <c r="B25" s="114">
         <v>3</v>
       </c>
-      <c r="C25" s="146" t="s">
-        <v>106</v>
+      <c r="C25" s="180" t="s">
+        <v>103</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="146" t="s">
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="146" t="s">
-        <v>107</v>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="180" t="s">
+        <v>104</v>
       </c>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="150" t="s">
-        <v>108</v>
+      <c r="T25" s="181"/>
+      <c r="U25" s="181"/>
+      <c r="V25" s="181"/>
+      <c r="W25" s="181"/>
+      <c r="X25" s="181"/>
+      <c r="Y25" s="181"/>
+      <c r="Z25" s="182"/>
+      <c r="AA25" s="184" t="s">
+        <v>105</v>
       </c>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="151"/>
-      <c r="AE25" s="151"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="151"/>
-      <c r="AJ25" s="151"/>
-      <c r="AK25" s="151"/>
-      <c r="AL25" s="151"/>
-      <c r="AM25" s="151"/>
-      <c r="AN25" s="151"/>
-      <c r="AO25" s="151"/>
-      <c r="AP25" s="151"/>
-      <c r="AQ25" s="151"/>
-      <c r="AR25" s="151"/>
-      <c r="AS25" s="151"/>
-      <c r="AT25" s="151"/>
-      <c r="AU25" s="151"/>
-      <c r="AV25" s="151"/>
-      <c r="AW25" s="151"/>
-      <c r="AX25" s="151"/>
-      <c r="AY25" s="151"/>
-      <c r="AZ25" s="151"/>
-      <c r="BA25" s="151"/>
-      <c r="BB25" s="151"/>
-      <c r="BC25" s="151"/>
-      <c r="BD25" s="151"/>
-      <c r="BE25" s="151"/>
-      <c r="BF25" s="151"/>
-      <c r="BG25" s="194"/>
+      <c r="AB25" s="185"/>
+      <c r="AC25" s="185"/>
+      <c r="AD25" s="185"/>
+      <c r="AE25" s="185"/>
+      <c r="AF25" s="185"/>
+      <c r="AG25" s="185"/>
+      <c r="AH25" s="185"/>
+      <c r="AI25" s="185"/>
+      <c r="AJ25" s="185"/>
+      <c r="AK25" s="185"/>
+      <c r="AL25" s="185"/>
+      <c r="AM25" s="185"/>
+      <c r="AN25" s="185"/>
+      <c r="AO25" s="185"/>
+      <c r="AP25" s="185"/>
+      <c r="AQ25" s="185"/>
+      <c r="AR25" s="185"/>
+      <c r="AS25" s="185"/>
+      <c r="AT25" s="185"/>
+      <c r="AU25" s="185"/>
+      <c r="AV25" s="185"/>
+      <c r="AW25" s="185"/>
+      <c r="AX25" s="185"/>
+      <c r="AY25" s="185"/>
+      <c r="AZ25" s="185"/>
+      <c r="BA25" s="185"/>
+      <c r="BB25" s="185"/>
+      <c r="BC25" s="185"/>
+      <c r="BD25" s="185"/>
+      <c r="BE25" s="185"/>
+      <c r="BF25" s="185"/>
+      <c r="BG25" s="210"/>
       <c r="BH25" s="63"/>
       <c r="BI25" s="72"/>
       <c r="BJ25" s="55"/>
@@ -27872,67 +27726,67 @@
     </row>
     <row r="27" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="68"/>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="208"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="208"/>
-      <c r="Q27" s="208"/>
-      <c r="R27" s="208"/>
-      <c r="S27" s="208"/>
-      <c r="T27" s="208"/>
-      <c r="U27" s="208"/>
-      <c r="V27" s="208"/>
-      <c r="W27" s="208"/>
-      <c r="X27" s="208"/>
-      <c r="Y27" s="208"/>
-      <c r="Z27" s="208"/>
-      <c r="AA27" s="208"/>
-      <c r="AB27" s="208"/>
-      <c r="AC27" s="208"/>
-      <c r="AD27" s="208"/>
-      <c r="AE27" s="208"/>
-      <c r="AF27" s="208"/>
-      <c r="AG27" s="208"/>
-      <c r="AH27" s="208"/>
-      <c r="AI27" s="208"/>
-      <c r="AJ27" s="208"/>
-      <c r="AK27" s="208"/>
-      <c r="AL27" s="208"/>
-      <c r="AM27" s="208"/>
-      <c r="AN27" s="208"/>
-      <c r="AO27" s="208"/>
-      <c r="AP27" s="208"/>
-      <c r="AQ27" s="208"/>
-      <c r="AR27" s="208"/>
-      <c r="AS27" s="208"/>
-      <c r="AT27" s="208"/>
-      <c r="AU27" s="208"/>
-      <c r="AV27" s="208"/>
-      <c r="AW27" s="208"/>
-      <c r="AX27" s="208"/>
-      <c r="AY27" s="208"/>
-      <c r="AZ27" s="208"/>
-      <c r="BA27" s="208"/>
-      <c r="BB27" s="208"/>
-      <c r="BC27" s="208"/>
-      <c r="BD27" s="208"/>
-      <c r="BE27" s="208"/>
-      <c r="BF27" s="208"/>
-      <c r="BG27" s="208"/>
-      <c r="BH27" s="209"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="205"/>
+      <c r="U27" s="205"/>
+      <c r="V27" s="205"/>
+      <c r="W27" s="205"/>
+      <c r="X27" s="205"/>
+      <c r="Y27" s="205"/>
+      <c r="Z27" s="205"/>
+      <c r="AA27" s="205"/>
+      <c r="AB27" s="205"/>
+      <c r="AC27" s="205"/>
+      <c r="AD27" s="205"/>
+      <c r="AE27" s="205"/>
+      <c r="AF27" s="205"/>
+      <c r="AG27" s="205"/>
+      <c r="AH27" s="205"/>
+      <c r="AI27" s="205"/>
+      <c r="AJ27" s="205"/>
+      <c r="AK27" s="205"/>
+      <c r="AL27" s="205"/>
+      <c r="AM27" s="205"/>
+      <c r="AN27" s="205"/>
+      <c r="AO27" s="205"/>
+      <c r="AP27" s="205"/>
+      <c r="AQ27" s="205"/>
+      <c r="AR27" s="205"/>
+      <c r="AS27" s="205"/>
+      <c r="AT27" s="205"/>
+      <c r="AU27" s="205"/>
+      <c r="AV27" s="205"/>
+      <c r="AW27" s="205"/>
+      <c r="AX27" s="205"/>
+      <c r="AY27" s="205"/>
+      <c r="AZ27" s="205"/>
+      <c r="BA27" s="205"/>
+      <c r="BB27" s="205"/>
+      <c r="BC27" s="205"/>
+      <c r="BD27" s="205"/>
+      <c r="BE27" s="205"/>
+      <c r="BF27" s="205"/>
+      <c r="BG27" s="205"/>
+      <c r="BH27" s="206"/>
       <c r="BI27" s="79"/>
       <c r="BJ27" s="53"/>
       <c r="BK27" s="53"/>
@@ -28135,7 +27989,7 @@
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81"/>
       <c r="B28" s="125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="82"/>
       <c r="D28" s="82"/>
@@ -36456,11 +36310,64 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="B27:BH27"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="AA24:BG24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:Z25"/>
+    <mergeCell ref="AA25:BG25"/>
+    <mergeCell ref="AA23:BG23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AX19"/>
+    <mergeCell ref="AY19:BG19"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:BG22"/>
+    <mergeCell ref="AY18:BG18"/>
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="S14:Z14"/>
+    <mergeCell ref="AA14:BG14"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AX17"/>
+    <mergeCell ref="AY17:BG17"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:BG13"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:Z10"/>
+    <mergeCell ref="AA10:BG10"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="AA9:BG9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A1:L2"/>
@@ -36477,64 +36384,11 @@
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:BG13"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="S10:Z10"/>
-    <mergeCell ref="AA10:BG10"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="AA14:BG14"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AX17"/>
-    <mergeCell ref="AY17:BG17"/>
-    <mergeCell ref="AY18:BG18"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AA23:BG23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AX19"/>
-    <mergeCell ref="AY19:BG19"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:BG22"/>
-    <mergeCell ref="B27:BH27"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="AA24:BG24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:Z25"/>
-    <mergeCell ref="AA25:BG25"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="3">
@@ -36552,14 +36406,16 @@
   <pageMargins left="0.59015748031496063" right="0.59015748031496063" top="0.8271653543307087" bottom="1.2208661417322835" header="0.78740157480314954" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="54" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36695,19 +36551,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36731,9 +36583,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>